--- a/Charts & Graphs/IDA World Bank Metrics.xlsx
+++ b/Charts & Graphs/IDA World Bank Metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Desktop\DAA\Projects\SQL - Banking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F09670A-CE5C-488A-91FA-0E82C0428348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BFBAEA-442D-4A43-A597-47904988F396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1668" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="1668" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Funding" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="112">
   <si>
     <t>financial_instrument</t>
   </si>
@@ -322,30 +322,6 @@
     <t>Overall Guarantee Disbursement Over Time</t>
   </si>
   <si>
-    <t>Disbursement by Region Over Time</t>
-  </si>
-  <si>
-    <t>Credit Disbursement by Region Over Time</t>
-  </si>
-  <si>
-    <t>Grant Disbursement by Region Over Time</t>
-  </si>
-  <si>
-    <t>Guarantee Disbursement by Region Over Time</t>
-  </si>
-  <si>
-    <t>Disbursement by Top 5 Countries Over Time</t>
-  </si>
-  <si>
-    <t>Credit Disbursement by Top 5 Countries Over Time</t>
-  </si>
-  <si>
-    <t>Grant Disbursement by Top 5 Countries Over Time</t>
-  </si>
-  <si>
-    <t>Guarantee Disbursement by Top 5 Countries Over Time</t>
-  </si>
-  <si>
     <t>cameroon_pct_chg</t>
   </si>
   <si>
@@ -361,12 +337,6 @@
     <t>china</t>
   </si>
   <si>
-    <t>tanzania_pct_chg</t>
-  </si>
-  <si>
-    <t>burundi_pct_chg</t>
-  </si>
-  <si>
     <t>repayment_year</t>
   </si>
   <si>
@@ -389,15 +359,23 @@
   </si>
   <si>
     <t>Repayment by Top 5 Countries Over Time</t>
+  </si>
+  <si>
+    <t>moving_avg_3yr</t>
+  </si>
+  <si>
+    <t>yoy_pct_change</t>
+  </si>
+  <si>
+    <t>ma_pct_change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -423,7 +401,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,6 +432,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -468,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -482,12 +466,13 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -495,6 +480,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -808,7 +798,7 @@
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>369078636970</v>
       </c>
       <c r="C3" s="12">
@@ -819,7 +809,7 @@
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>55104511596</v>
       </c>
       <c r="C4" s="12">
@@ -830,7 +820,7 @@
       <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>2548728000</v>
       </c>
       <c r="C5" s="12">
@@ -838,9 +828,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="15"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
@@ -1518,7 +1508,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G42" s="10">
         <v>235500000</v>
@@ -1591,7 +1581,7 @@
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>62569459138</v>
       </c>
       <c r="C3" s="12">
@@ -1602,7 +1592,7 @@
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>17116032108</v>
       </c>
       <c r="C4" s="12">
@@ -1613,7 +1603,7 @@
       <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>1545787508</v>
       </c>
       <c r="C5" s="12">
@@ -1763,7 +1753,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G14" s="8">
         <v>3488251613</v>
@@ -1932,7 +1922,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G23" s="8">
         <v>3488251613</v>
@@ -2107,7 +2097,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G32" s="8">
         <v>1045601914</v>
@@ -2365,7 +2355,7 @@
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>118321678178</v>
       </c>
       <c r="C3" s="12">
@@ -2439,7 +2429,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F9" s="8">
         <v>10672522087</v>
@@ -2535,8 +2525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40840DB3-177B-4C06-8CE8-9AB7372A55E2}">
   <dimension ref="A1:X88"/>
   <sheetViews>
-    <sheetView topLeftCell="J16" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2546,48 +2536,53 @@
     <col min="3" max="3" width="22.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="15.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18.08984375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="11" t="s">
-        <v>74</v>
-      </c>
+      <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>34</v>
       </c>
@@ -2595,543 +2590,887 @@
         <v>35</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="M2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2011</v>
       </c>
       <c r="B3" s="12">
         <v>12087420000</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>0</v>
       </c>
       <c r="D3" s="12">
+        <v>12087420000</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
         <v>2011</v>
       </c>
-      <c r="E3" s="12">
+      <c r="G3" s="12">
         <v>10447160000</v>
       </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>10447160000</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
         <v>2011</v>
       </c>
-      <c r="H3" s="12">
+      <c r="L3" s="12">
         <v>1558260000</v>
       </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <v>1558260000</v>
+      </c>
+      <c r="O3" s="12">
+        <v>0</v>
+      </c>
+      <c r="P3" s="12">
         <v>2011</v>
       </c>
-      <c r="K3" s="12">
+      <c r="Q3" s="12">
         <v>82000000</v>
       </c>
-      <c r="L3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R3" s="12">
+        <v>0</v>
+      </c>
+      <c r="S3" s="12">
+        <v>82000000</v>
+      </c>
+      <c r="T3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2012</v>
       </c>
       <c r="B4" s="12">
         <v>11993050000</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>-0.8</v>
       </c>
       <c r="D4" s="12">
+        <v>12040235000</v>
+      </c>
+      <c r="E4" s="12">
+        <v>-0.4</v>
+      </c>
+      <c r="F4" s="12">
         <v>2012</v>
       </c>
-      <c r="E4" s="12">
+      <c r="G4" s="12">
         <v>10691050000</v>
       </c>
-      <c r="F4" s="12">
+      <c r="H4" s="12">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G4" s="12">
+      <c r="I4" s="12">
+        <v>10569105000</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="K4" s="12">
         <v>2012</v>
       </c>
-      <c r="H4" s="12">
+      <c r="L4" s="12">
         <v>1302000000</v>
       </c>
-      <c r="I4" s="12">
+      <c r="M4" s="12">
         <v>-16.399999999999999</v>
       </c>
-      <c r="J4" s="12">
+      <c r="N4" s="12">
+        <v>1430130000</v>
+      </c>
+      <c r="O4" s="12">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="P4" s="12">
         <v>2012</v>
       </c>
-      <c r="K4" s="12">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
+      <c r="Q4" s="12">
+        <v>0</v>
+      </c>
+      <c r="R4" s="12">
         <v>-100</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="S4" s="12">
+        <v>41000000</v>
+      </c>
+      <c r="T4" s="12">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2013</v>
       </c>
       <c r="B5" s="12">
         <v>10887260000</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>-9.1999999999999993</v>
       </c>
       <c r="D5" s="12">
+        <v>11655910000</v>
+      </c>
+      <c r="E5" s="12">
+        <v>-3.2</v>
+      </c>
+      <c r="F5" s="12">
         <v>2013</v>
       </c>
-      <c r="E5" s="12">
+      <c r="G5" s="12">
         <v>9210110000</v>
       </c>
-      <c r="F5" s="12">
+      <c r="H5" s="12">
         <v>-13.9</v>
       </c>
-      <c r="G5" s="12">
+      <c r="I5" s="12">
+        <v>10116106667</v>
+      </c>
+      <c r="J5" s="12">
+        <v>-4.3</v>
+      </c>
+      <c r="K5" s="12">
         <v>2013</v>
       </c>
-      <c r="H5" s="12">
+      <c r="L5" s="12">
         <v>1577150000</v>
       </c>
-      <c r="I5" s="12">
+      <c r="M5" s="12">
         <v>21.1</v>
       </c>
-      <c r="J5" s="12">
+      <c r="N5" s="12">
+        <v>1479136667</v>
+      </c>
+      <c r="O5" s="12">
+        <v>3.4</v>
+      </c>
+      <c r="P5" s="12">
         <v>2013</v>
       </c>
-      <c r="K5" s="12">
+      <c r="Q5" s="12">
         <v>100000000</v>
       </c>
-      <c r="L5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R5" s="12">
+        <v>0</v>
+      </c>
+      <c r="S5" s="12">
+        <v>60666667</v>
+      </c>
+      <c r="T5" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2014</v>
       </c>
       <c r="B6" s="12">
         <v>14429160000</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>32.5</v>
       </c>
       <c r="D6" s="12">
+        <v>12436490000</v>
+      </c>
+      <c r="E6" s="12">
+        <v>6.7</v>
+      </c>
+      <c r="F6" s="12">
         <v>2014</v>
       </c>
-      <c r="E6" s="12">
+      <c r="G6" s="12">
         <v>13025950000</v>
       </c>
-      <c r="F6" s="12">
+      <c r="H6" s="12">
         <v>41.4</v>
       </c>
-      <c r="G6" s="12">
+      <c r="I6" s="12">
+        <v>10975703333</v>
+      </c>
+      <c r="J6" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="K6" s="12">
         <v>2014</v>
       </c>
-      <c r="H6" s="12">
+      <c r="L6" s="12">
         <v>1403210000</v>
       </c>
-      <c r="I6" s="12">
+      <c r="M6" s="12">
         <v>-11</v>
       </c>
-      <c r="J6" s="12">
+      <c r="N6" s="12">
+        <v>1427453333</v>
+      </c>
+      <c r="O6" s="12">
+        <v>-3.5</v>
+      </c>
+      <c r="P6" s="12">
         <v>2014</v>
       </c>
-      <c r="K6" s="12">
-        <v>0</v>
-      </c>
-      <c r="L6" s="12">
+      <c r="Q6" s="12">
+        <v>0</v>
+      </c>
+      <c r="R6" s="12">
         <v>-100</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="S6" s="12">
+        <v>33333333</v>
+      </c>
+      <c r="T6" s="12">
+        <v>-45.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2015</v>
       </c>
       <c r="B7" s="12">
         <v>15255114030</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>5.7</v>
       </c>
       <c r="D7" s="12">
+        <v>13523844677</v>
+      </c>
+      <c r="E7" s="12">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F7" s="12">
         <v>2015</v>
       </c>
-      <c r="E7" s="12">
+      <c r="G7" s="12">
         <v>13267014030</v>
       </c>
-      <c r="F7" s="12">
+      <c r="H7" s="12">
         <v>1.9</v>
       </c>
-      <c r="G7" s="12">
+      <c r="I7" s="12">
+        <v>11834358010</v>
+      </c>
+      <c r="J7" s="12">
+        <v>7.8</v>
+      </c>
+      <c r="K7" s="12">
         <v>2015</v>
       </c>
-      <c r="H7" s="12">
+      <c r="L7" s="12">
         <v>888100000</v>
       </c>
-      <c r="I7" s="12">
+      <c r="M7" s="12">
         <v>-36.700000000000003</v>
       </c>
-      <c r="J7" s="12">
+      <c r="N7" s="12">
+        <v>1289486667</v>
+      </c>
+      <c r="O7" s="12">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="P7" s="12">
         <v>2015</v>
       </c>
-      <c r="K7" s="12">
+      <c r="Q7" s="12">
         <v>1100000000</v>
       </c>
-      <c r="L7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R7" s="12">
+        <v>0</v>
+      </c>
+      <c r="S7" s="12">
+        <v>400000000</v>
+      </c>
+      <c r="T7" s="12">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2016</v>
       </c>
       <c r="B8" s="12">
         <v>10773640000</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>-29.4</v>
       </c>
       <c r="D8" s="12">
+        <v>13485971343</v>
+      </c>
+      <c r="E8" s="12">
+        <v>-0.3</v>
+      </c>
+      <c r="F8" s="12">
         <v>2016</v>
       </c>
-      <c r="E8" s="12">
+      <c r="G8" s="12">
         <v>9800860000</v>
       </c>
-      <c r="F8" s="12">
+      <c r="H8" s="12">
         <v>-26.1</v>
       </c>
-      <c r="G8" s="12">
+      <c r="I8" s="12">
+        <v>12031274677</v>
+      </c>
+      <c r="J8" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="K8" s="12">
         <v>2016</v>
       </c>
-      <c r="H8" s="12">
+      <c r="L8" s="12">
         <v>932780000</v>
       </c>
-      <c r="I8" s="12">
+      <c r="M8" s="12">
         <v>5</v>
       </c>
-      <c r="J8" s="12">
+      <c r="N8" s="12">
+        <v>1074696667</v>
+      </c>
+      <c r="O8" s="12">
+        <v>-16.7</v>
+      </c>
+      <c r="P8" s="12">
         <v>2016</v>
       </c>
-      <c r="K8" s="12">
+      <c r="Q8" s="12">
         <v>40000000</v>
       </c>
-      <c r="L8" s="12">
+      <c r="R8" s="12">
         <v>-96.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="S8" s="12">
+        <v>380000000</v>
+      </c>
+      <c r="T8" s="12">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2017</v>
       </c>
       <c r="B9" s="12">
         <v>16583973180</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>53.9</v>
       </c>
       <c r="D9" s="12">
+        <v>14204242403</v>
+      </c>
+      <c r="E9" s="12">
+        <v>5.3</v>
+      </c>
+      <c r="F9" s="12">
         <v>2017</v>
       </c>
-      <c r="E9" s="12">
+      <c r="G9" s="12">
         <v>13786773180</v>
       </c>
-      <c r="F9" s="12">
+      <c r="H9" s="12">
         <v>40.700000000000003</v>
       </c>
-      <c r="G9" s="12">
+      <c r="I9" s="12">
+        <v>12284882403</v>
+      </c>
+      <c r="J9" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="K9" s="12">
         <v>2017</v>
       </c>
-      <c r="H9" s="12">
+      <c r="L9" s="12">
         <v>2790900000</v>
       </c>
-      <c r="I9" s="12">
+      <c r="M9" s="12">
         <v>199.2</v>
       </c>
-      <c r="J9" s="12">
+      <c r="N9" s="12">
+        <v>1537260000</v>
+      </c>
+      <c r="O9" s="12">
+        <v>43</v>
+      </c>
+      <c r="P9" s="12">
         <v>2017</v>
       </c>
-      <c r="K9" s="12">
+      <c r="Q9" s="12">
         <v>6300000</v>
       </c>
-      <c r="L9" s="12">
+      <c r="R9" s="12">
         <v>-84.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="S9" s="12">
+        <v>382100000</v>
+      </c>
+      <c r="T9" s="12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2018</v>
       </c>
       <c r="B10" s="12">
         <v>16644058730</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>0.4</v>
       </c>
       <c r="D10" s="12">
+        <v>14667223970</v>
+      </c>
+      <c r="E10" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="F10" s="12">
         <v>2018</v>
       </c>
-      <c r="E10" s="12">
+      <c r="G10" s="12">
         <v>12889000000</v>
       </c>
-      <c r="F10" s="12">
+      <c r="H10" s="12">
         <v>-6.5</v>
       </c>
-      <c r="G10" s="12">
+      <c r="I10" s="12">
+        <v>12158877727</v>
+      </c>
+      <c r="J10" s="12">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="12">
         <v>2018</v>
       </c>
-      <c r="H10" s="12">
+      <c r="L10" s="12">
         <v>3475058730</v>
       </c>
-      <c r="I10" s="12">
+      <c r="M10" s="12">
         <v>24.5</v>
       </c>
-      <c r="J10" s="12">
+      <c r="N10" s="12">
+        <v>2399579577</v>
+      </c>
+      <c r="O10" s="12">
+        <v>56.1</v>
+      </c>
+      <c r="P10" s="12">
         <v>2018</v>
       </c>
-      <c r="K10" s="12">
+      <c r="Q10" s="12">
         <v>280000000</v>
       </c>
-      <c r="L10" s="12">
+      <c r="R10" s="12">
         <v>4344.3999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="S10" s="12">
+        <v>108766667</v>
+      </c>
+      <c r="T10" s="12">
+        <v>-71.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2019</v>
       </c>
       <c r="B11" s="12">
         <v>11947380000</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>-28.2</v>
       </c>
       <c r="D11" s="12">
+        <v>15058470637</v>
+      </c>
+      <c r="E11" s="12">
+        <v>2.7</v>
+      </c>
+      <c r="F11" s="12">
         <v>2019</v>
       </c>
-      <c r="E11" s="12">
+      <c r="G11" s="12">
         <v>8679490000</v>
       </c>
-      <c r="F11" s="12">
+      <c r="H11" s="12">
         <v>-32.700000000000003</v>
       </c>
-      <c r="G11" s="12">
+      <c r="I11" s="12">
+        <v>11785087727</v>
+      </c>
+      <c r="J11" s="12">
+        <v>-3.1</v>
+      </c>
+      <c r="K11" s="12">
         <v>2019</v>
       </c>
-      <c r="H11" s="12">
+      <c r="L11" s="12">
         <v>3202890000</v>
       </c>
-      <c r="I11" s="12">
+      <c r="M11" s="12">
         <v>-7.8</v>
       </c>
-      <c r="J11" s="12">
+      <c r="N11" s="12">
+        <v>3156282910</v>
+      </c>
+      <c r="O11" s="12">
+        <v>31.5</v>
+      </c>
+      <c r="P11" s="12">
         <v>2019</v>
       </c>
-      <c r="K11" s="12">
+      <c r="Q11" s="12">
         <v>65000000</v>
       </c>
-      <c r="L11" s="12">
+      <c r="R11" s="12">
         <v>-76.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="S11" s="12">
+        <v>117100000</v>
+      </c>
+      <c r="T11" s="12">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2020</v>
       </c>
       <c r="B12" s="12">
         <v>23014215400</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>92.6</v>
       </c>
       <c r="D12" s="12">
+        <v>17201884710</v>
+      </c>
+      <c r="E12" s="12">
+        <v>14.2</v>
+      </c>
+      <c r="F12" s="12">
         <v>2020</v>
       </c>
-      <c r="E12" s="12">
+      <c r="G12" s="12">
         <v>19077095400</v>
       </c>
-      <c r="F12" s="12">
+      <c r="H12" s="12">
         <v>119.8</v>
       </c>
-      <c r="G12" s="12">
+      <c r="I12" s="12">
+        <v>13548528467</v>
+      </c>
+      <c r="J12" s="12">
+        <v>15</v>
+      </c>
+      <c r="K12" s="12">
         <v>2020</v>
       </c>
-      <c r="H12" s="12">
+      <c r="L12" s="12">
         <v>3937120000</v>
       </c>
-      <c r="I12" s="12">
+      <c r="M12" s="12">
         <v>22.9</v>
       </c>
-      <c r="J12" s="12">
+      <c r="N12" s="12">
+        <v>3538356243</v>
+      </c>
+      <c r="O12" s="12">
+        <v>12.1</v>
+      </c>
+      <c r="P12" s="12">
         <v>2024</v>
       </c>
-      <c r="K12" s="12">
+      <c r="Q12" s="12">
         <v>221500000</v>
       </c>
-      <c r="L12" s="12">
+      <c r="R12" s="12">
         <v>240.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="S12" s="12">
+        <v>188833333</v>
+      </c>
+      <c r="T12" s="12">
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2021</v>
       </c>
       <c r="B13" s="12">
         <v>22395889946</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>-2.7</v>
       </c>
       <c r="D13" s="12">
+        <v>19119161782</v>
+      </c>
+      <c r="E13" s="12">
+        <v>11.1</v>
+      </c>
+      <c r="F13" s="12">
         <v>2021</v>
       </c>
-      <c r="E13" s="12">
+      <c r="G13" s="12">
         <v>17463789946</v>
       </c>
-      <c r="F13" s="12">
+      <c r="H13" s="12">
         <v>-8.5</v>
       </c>
-      <c r="G13" s="12">
+      <c r="I13" s="12">
+        <v>15073458449</v>
+      </c>
+      <c r="J13" s="12">
+        <v>11.3</v>
+      </c>
+      <c r="K13" s="12">
         <v>2021</v>
       </c>
-      <c r="H13" s="12">
+      <c r="L13" s="12">
         <v>4932100000</v>
       </c>
-      <c r="I13" s="12">
+      <c r="M13" s="12">
         <v>25.3</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N13" s="12">
+        <v>4024036667</v>
+      </c>
+      <c r="O13" s="12">
+        <v>13.7</v>
+      </c>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2022</v>
       </c>
       <c r="B14" s="12">
         <v>29306305960</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>30.9</v>
       </c>
       <c r="D14" s="12">
+        <v>24905470435</v>
+      </c>
+      <c r="E14" s="12">
+        <v>30.3</v>
+      </c>
+      <c r="F14" s="12">
         <v>2022</v>
       </c>
-      <c r="E14" s="12">
+      <c r="G14" s="12">
         <v>21562015960</v>
       </c>
-      <c r="F14" s="12">
+      <c r="H14" s="12">
         <v>23.5</v>
       </c>
-      <c r="G14" s="12">
+      <c r="I14" s="12">
+        <v>19367633769</v>
+      </c>
+      <c r="J14" s="12">
+        <v>28.5</v>
+      </c>
+      <c r="K14" s="12">
         <v>2022</v>
       </c>
-      <c r="H14" s="12">
+      <c r="L14" s="12">
         <v>7744290000</v>
       </c>
-      <c r="I14" s="12">
+      <c r="M14" s="12">
         <v>57</v>
       </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N14" s="12">
+        <v>5537836667</v>
+      </c>
+      <c r="O14" s="12">
+        <v>37.6</v>
+      </c>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2023</v>
       </c>
       <c r="B15" s="12">
         <v>24194219518</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>-17.399999999999999</v>
       </c>
       <c r="D15" s="12">
+        <v>25298805141</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="F15" s="12">
         <v>2023</v>
       </c>
-      <c r="E15" s="12">
+      <c r="G15" s="12">
         <v>19887669518</v>
       </c>
-      <c r="F15" s="12">
+      <c r="H15" s="12">
         <v>-7.8</v>
       </c>
-      <c r="G15" s="12">
+      <c r="I15" s="12">
+        <v>19637825141</v>
+      </c>
+      <c r="J15" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="K15" s="12">
         <v>2023</v>
       </c>
-      <c r="H15" s="12">
+      <c r="L15" s="12">
         <v>4306550000</v>
       </c>
-      <c r="I15" s="12">
+      <c r="M15" s="12">
         <v>-44.4</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N15" s="12">
+        <v>5660980000</v>
+      </c>
+      <c r="O15" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2024</v>
       </c>
       <c r="B16" s="12">
         <v>29005320000</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>19.899999999999999</v>
       </c>
       <c r="D16" s="12">
+        <v>27501948493</v>
+      </c>
+      <c r="E16" s="12">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F16" s="12">
         <v>2024</v>
       </c>
-      <c r="E16" s="12">
+      <c r="G16" s="12">
         <v>23086820000</v>
       </c>
-      <c r="F16" s="12">
+      <c r="H16" s="12">
         <v>16.100000000000001</v>
       </c>
-      <c r="G16" s="12">
+      <c r="I16" s="12">
+        <v>21512168493</v>
+      </c>
+      <c r="J16" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="K16" s="12">
         <v>2024</v>
       </c>
-      <c r="H16" s="12">
+      <c r="L16" s="12">
         <v>5697000000</v>
       </c>
-      <c r="I16" s="12">
+      <c r="M16" s="12">
         <v>32.299999999999997</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="N16" s="12">
+        <v>5915946667</v>
+      </c>
+      <c r="O16" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
@@ -3144,31 +3483,51 @@
         <v>-77.2</v>
       </c>
       <c r="D17" s="12">
+        <v>19935056584</v>
+      </c>
+      <c r="E17" s="12">
+        <v>-27.5</v>
+      </c>
+      <c r="F17" s="12">
         <v>2025</v>
       </c>
-      <c r="E17" s="12">
+      <c r="G17" s="12">
         <v>5393010235</v>
       </c>
-      <c r="F17" s="12">
+      <c r="H17" s="12">
         <v>-76.599999999999994</v>
       </c>
-      <c r="G17" s="12">
+      <c r="I17" s="12">
+        <v>16122499918</v>
+      </c>
+      <c r="J17" s="12">
+        <v>-25.1</v>
+      </c>
+      <c r="K17" s="12">
         <v>2025</v>
       </c>
-      <c r="H17" s="12">
+      <c r="L17" s="12">
         <v>1212620000</v>
       </c>
-      <c r="I17" s="12">
+      <c r="M17" s="12">
         <v>-78.7</v>
       </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="N17" s="12">
+        <v>3738723333</v>
+      </c>
+      <c r="O17" s="12">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
@@ -6971,7 +7330,7 @@
         <v>60</v>
       </c>
       <c r="X78" s="8" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.35">
@@ -7613,61 +7972,71 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE483C63-8F76-45DA-BD12-E1EE9A297B15}">
-  <dimension ref="A1:X93"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.36328125" customWidth="1"/>
-    <col min="5" max="5" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>90</v>
       </c>
@@ -7675,5491 +8044,988 @@
         <v>91</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="M2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2011</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>47495328484</v>
       </c>
       <c r="C3" s="12">
         <v>0</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="16">
+        <v>47495328484</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
         <v>2011</v>
       </c>
-      <c r="E3" s="12">
+      <c r="G3" s="12">
         <v>40697192351</v>
       </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>40697192351</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
         <v>2011</v>
       </c>
-      <c r="H3" s="12">
+      <c r="L3" s="12">
         <v>7566192991</v>
       </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <v>7566192991</v>
+      </c>
+      <c r="O3" s="12">
+        <v>0</v>
+      </c>
+      <c r="P3" s="12">
         <v>2011</v>
       </c>
-      <c r="K3" s="12">
-        <v>875039695</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="Q3" s="12">
+        <v>7566192991</v>
+      </c>
+      <c r="R3" s="12">
+        <v>0</v>
+      </c>
+      <c r="S3" s="12">
+        <v>7566192991</v>
+      </c>
+      <c r="T3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2012</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>52457642273</v>
       </c>
       <c r="C4" s="12">
         <v>10.4</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="16">
+        <v>49976485379</v>
+      </c>
+      <c r="E4" s="12">
+        <v>5.2</v>
+      </c>
+      <c r="F4" s="12">
         <v>2012</v>
       </c>
-      <c r="E4" s="12">
+      <c r="G4" s="12">
         <v>45581370670</v>
       </c>
-      <c r="F4" s="12">
+      <c r="H4" s="12">
         <v>12</v>
       </c>
-      <c r="G4" s="12">
+      <c r="I4" s="12">
+        <v>43139281511</v>
+      </c>
+      <c r="J4" s="12">
+        <v>6</v>
+      </c>
+      <c r="K4" s="12">
         <v>2012</v>
       </c>
-      <c r="H4" s="12">
+      <c r="L4" s="12">
         <v>6883857298</v>
       </c>
-      <c r="I4" s="12">
+      <c r="M4" s="12">
         <v>-9</v>
       </c>
-      <c r="J4" s="12">
+      <c r="N4" s="12">
+        <v>7225025145</v>
+      </c>
+      <c r="O4" s="12">
+        <v>-4.5</v>
+      </c>
+      <c r="P4" s="12">
         <v>2012</v>
       </c>
-      <c r="K4" s="12">
-        <v>1230751544</v>
-      </c>
-      <c r="L4" s="12">
-        <v>40.700000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="Q4" s="12">
+        <v>6883857298</v>
+      </c>
+      <c r="R4" s="12">
+        <v>-9</v>
+      </c>
+      <c r="S4" s="12">
+        <v>7225025145</v>
+      </c>
+      <c r="T4" s="12">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2013</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>55827731961</v>
       </c>
       <c r="C5" s="12">
         <v>6.4</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="16">
+        <v>51926900906</v>
+      </c>
+      <c r="E5" s="12">
+        <v>3.9</v>
+      </c>
+      <c r="F5" s="12">
         <v>2013</v>
       </c>
-      <c r="E5" s="12">
+      <c r="G5" s="12">
         <v>48128816945</v>
       </c>
-      <c r="F5" s="12">
+      <c r="H5" s="12">
         <v>5.6</v>
       </c>
-      <c r="G5" s="12">
+      <c r="I5" s="12">
+        <v>44802459989</v>
+      </c>
+      <c r="J5" s="12">
+        <v>3.9</v>
+      </c>
+      <c r="K5" s="12">
         <v>2013</v>
       </c>
-      <c r="H5" s="12">
+      <c r="L5" s="12">
         <v>7646277104</v>
       </c>
-      <c r="I5" s="12">
+      <c r="M5" s="12">
         <v>11.1</v>
       </c>
-      <c r="J5" s="12">
+      <c r="N5" s="12">
+        <v>7365442464</v>
+      </c>
+      <c r="O5" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="P5" s="12">
         <v>2013</v>
       </c>
-      <c r="K5" s="12">
-        <v>1317428741</v>
-      </c>
-      <c r="L5" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="Q5" s="12">
+        <v>7646277104</v>
+      </c>
+      <c r="R5" s="12">
+        <v>11.1</v>
+      </c>
+      <c r="S5" s="12">
+        <v>7365442464</v>
+      </c>
+      <c r="T5" s="12">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2014</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>60786399924</v>
       </c>
       <c r="C6" s="12">
         <v>8.9</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="16">
+        <v>56357258053</v>
+      </c>
+      <c r="E6" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="F6" s="12">
         <v>2014</v>
       </c>
-      <c r="E6" s="12">
+      <c r="G6" s="12">
         <v>52474782235</v>
       </c>
-      <c r="F6" s="12">
+      <c r="H6" s="12">
         <v>9</v>
       </c>
-      <c r="G6" s="12">
+      <c r="I6" s="12">
+        <v>48728323283</v>
+      </c>
+      <c r="J6" s="12">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K6" s="12">
         <v>2014</v>
       </c>
-      <c r="H6" s="12">
+      <c r="L6" s="12">
         <v>8022286108</v>
       </c>
-      <c r="I6" s="12">
+      <c r="M6" s="12">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J6" s="12">
+      <c r="N6" s="12">
+        <v>7517473503</v>
+      </c>
+      <c r="O6" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="P6" s="12">
         <v>2014</v>
       </c>
-      <c r="K6" s="12">
-        <v>2184866563</v>
-      </c>
-      <c r="L6" s="12">
-        <v>65.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="Q6" s="12">
+        <v>8022286108</v>
+      </c>
+      <c r="R6" s="12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S6" s="12">
+        <v>7517473503</v>
+      </c>
+      <c r="T6" s="12">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2015</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>62087753639</v>
       </c>
       <c r="C7" s="12">
         <v>2.1</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="16">
+        <v>59567295175</v>
+      </c>
+      <c r="E7" s="12">
+        <v>5.7</v>
+      </c>
+      <c r="F7" s="12">
         <v>2015</v>
       </c>
-      <c r="E7" s="12">
+      <c r="G7" s="12">
         <v>53451424324</v>
       </c>
-      <c r="F7" s="12">
+      <c r="H7" s="12">
         <v>1.9</v>
       </c>
-      <c r="G7" s="12">
+      <c r="I7" s="12">
+        <v>51351674501</v>
+      </c>
+      <c r="J7" s="12">
+        <v>5.4</v>
+      </c>
+      <c r="K7" s="12">
         <v>2015</v>
       </c>
-      <c r="H7" s="12">
+      <c r="L7" s="12">
         <v>7155253820</v>
       </c>
-      <c r="I7" s="12">
+      <c r="M7" s="12">
         <v>-10.8</v>
       </c>
-      <c r="J7" s="12">
+      <c r="N7" s="12">
+        <v>7607939011</v>
+      </c>
+      <c r="O7" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="P7" s="12">
         <v>2015</v>
       </c>
-      <c r="K7" s="12">
-        <v>3618918551</v>
-      </c>
-      <c r="L7" s="12">
-        <v>65.599999999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="Q7" s="12">
+        <v>7155253820</v>
+      </c>
+      <c r="R7" s="12">
+        <v>-10.8</v>
+      </c>
+      <c r="S7" s="12">
+        <v>7607939011</v>
+      </c>
+      <c r="T7" s="12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2016</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>61867526305</v>
       </c>
       <c r="C8" s="12">
         <v>-0.4</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="16">
+        <v>61580559956</v>
+      </c>
+      <c r="E8" s="12">
+        <v>3.4</v>
+      </c>
+      <c r="F8" s="12">
         <v>2016</v>
       </c>
-      <c r="E8" s="12">
+      <c r="G8" s="12">
         <v>53663156563</v>
       </c>
-      <c r="F8" s="12">
+      <c r="H8" s="12">
         <v>0.4</v>
       </c>
-      <c r="G8" s="12">
+      <c r="I8" s="12">
+        <v>53196454374</v>
+      </c>
+      <c r="J8" s="12">
+        <v>3.6</v>
+      </c>
+      <c r="K8" s="12">
         <v>2016</v>
       </c>
-      <c r="H8" s="12">
+      <c r="L8" s="12">
         <v>6903867879</v>
       </c>
-      <c r="I8" s="12">
+      <c r="M8" s="12">
         <v>-3.5</v>
       </c>
-      <c r="J8" s="12">
+      <c r="N8" s="12">
+        <v>7360469269</v>
+      </c>
+      <c r="O8" s="12">
+        <v>-3.3</v>
+      </c>
+      <c r="P8" s="12">
         <v>2016</v>
       </c>
-      <c r="K8" s="12">
-        <v>3054604099</v>
-      </c>
-      <c r="L8" s="12">
-        <v>-15.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="Q8" s="12">
+        <v>6903867879</v>
+      </c>
+      <c r="R8" s="12">
+        <v>-3.5</v>
+      </c>
+      <c r="S8" s="12">
+        <v>7360469269</v>
+      </c>
+      <c r="T8" s="12">
+        <v>-3.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2017</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>70945172604</v>
       </c>
       <c r="C9" s="12">
         <v>14.7</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="16">
+        <v>64966817516</v>
+      </c>
+      <c r="E9" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="F9" s="12">
         <v>2017</v>
       </c>
-      <c r="E9" s="12">
+      <c r="G9" s="12">
         <v>60959210780</v>
       </c>
-      <c r="F9" s="12">
+      <c r="H9" s="12">
         <v>13.6</v>
       </c>
-      <c r="G9" s="12">
+      <c r="I9" s="12">
+        <v>56024597222</v>
+      </c>
+      <c r="J9" s="12">
+        <v>5.3</v>
+      </c>
+      <c r="K9" s="12">
         <v>2017</v>
       </c>
-      <c r="H9" s="12">
+      <c r="L9" s="12">
         <v>8791924781</v>
       </c>
-      <c r="I9" s="12">
+      <c r="M9" s="12">
         <v>27.3</v>
       </c>
-      <c r="J9" s="12">
+      <c r="N9" s="12">
+        <v>7617015493</v>
+      </c>
+      <c r="O9" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="P9" s="12">
         <v>2017</v>
       </c>
-      <c r="K9" s="12">
-        <v>3247040617</v>
-      </c>
-      <c r="L9" s="12">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
+      <c r="Q9" s="12">
+        <v>8791924781</v>
+      </c>
+      <c r="R9" s="12">
+        <v>27.3</v>
+      </c>
+      <c r="S9" s="12">
+        <v>7617015493</v>
+      </c>
+      <c r="T9" s="12">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="18">
         <v>2018</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="19">
         <v>80282605284</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="18">
         <v>13.2</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="19">
+        <v>71031768064</v>
+      </c>
+      <c r="E10" s="18">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F10" s="18">
         <v>2018</v>
       </c>
-      <c r="E10" s="12">
+      <c r="G10" s="18">
         <v>68854159736</v>
       </c>
-      <c r="F10" s="12">
+      <c r="H10" s="18">
         <v>13</v>
       </c>
-      <c r="G10" s="12">
+      <c r="I10" s="18">
+        <v>61158842360</v>
+      </c>
+      <c r="J10" s="18">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K10" s="18">
         <v>2018</v>
       </c>
-      <c r="H10" s="12">
+      <c r="L10" s="18">
         <v>12060929504</v>
       </c>
-      <c r="I10" s="12">
+      <c r="M10" s="18">
         <v>37.200000000000003</v>
       </c>
-      <c r="J10" s="12">
+      <c r="N10" s="18">
+        <v>9252240721</v>
+      </c>
+      <c r="O10" s="18">
+        <v>21.5</v>
+      </c>
+      <c r="P10" s="18">
         <v>2018</v>
       </c>
-      <c r="K10" s="12">
-        <v>2815451609</v>
-      </c>
-      <c r="L10" s="12">
-        <v>-13.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="Q10" s="18">
+        <v>12060929504</v>
+      </c>
+      <c r="R10" s="18">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="S10" s="18">
+        <v>9252240721</v>
+      </c>
+      <c r="T10" s="18">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2019</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>78646964202</v>
       </c>
       <c r="C11" s="12">
         <v>-2</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="16">
+        <v>76624914030</v>
+      </c>
+      <c r="E11" s="12">
+        <v>7.9</v>
+      </c>
+      <c r="F11" s="12">
         <v>2019</v>
       </c>
-      <c r="E11" s="12">
+      <c r="G11" s="12">
         <v>65244700148</v>
       </c>
-      <c r="F11" s="12">
+      <c r="H11" s="12">
         <v>-5.2</v>
       </c>
-      <c r="G11" s="12">
+      <c r="I11" s="12">
+        <v>65019356888</v>
+      </c>
+      <c r="J11" s="12">
+        <v>6.3</v>
+      </c>
+      <c r="K11" s="12">
         <v>2019</v>
       </c>
-      <c r="H11" s="12">
+      <c r="L11" s="12">
         <v>14408563482</v>
       </c>
-      <c r="I11" s="12">
+      <c r="M11" s="12">
         <v>19.5</v>
       </c>
-      <c r="J11" s="12">
+      <c r="N11" s="12">
+        <v>11753805922</v>
+      </c>
+      <c r="O11" s="12">
+        <v>27</v>
+      </c>
+      <c r="P11" s="12">
         <v>2019</v>
       </c>
-      <c r="K11" s="12">
-        <v>2521997427</v>
-      </c>
-      <c r="L11" s="12">
-        <v>-10.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="Q11" s="12">
+        <v>14408563482</v>
+      </c>
+      <c r="R11" s="12">
+        <v>19.5</v>
+      </c>
+      <c r="S11" s="12">
+        <v>11753805922</v>
+      </c>
+      <c r="T11" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2020</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>90232372754</v>
       </c>
       <c r="C12" s="12">
         <v>14.7</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="16">
+        <v>83053980747</v>
+      </c>
+      <c r="E12" s="12">
+        <v>8.4</v>
+      </c>
+      <c r="F12" s="12">
         <v>2020</v>
       </c>
-      <c r="E12" s="12">
+      <c r="G12" s="12">
         <v>73392898565</v>
       </c>
-      <c r="F12" s="12">
+      <c r="H12" s="12">
         <v>12.5</v>
       </c>
-      <c r="G12" s="12">
+      <c r="I12" s="12">
+        <v>69163919483</v>
+      </c>
+      <c r="J12" s="12">
+        <v>6.4</v>
+      </c>
+      <c r="K12" s="12">
         <v>2020</v>
       </c>
-      <c r="H12" s="12">
+      <c r="L12" s="12">
         <v>20483514490</v>
       </c>
-      <c r="I12" s="12">
+      <c r="M12" s="12">
         <v>42.2</v>
       </c>
-      <c r="J12" s="12">
+      <c r="N12" s="12">
+        <v>15651002492</v>
+      </c>
+      <c r="O12" s="12">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="P12" s="12">
         <v>2020</v>
       </c>
-      <c r="K12" s="12">
-        <v>2512693561</v>
-      </c>
-      <c r="L12" s="12">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="Q12" s="12">
+        <v>20483514490</v>
+      </c>
+      <c r="R12" s="12">
+        <v>42.2</v>
+      </c>
+      <c r="S12" s="12">
+        <v>15651002492</v>
+      </c>
+      <c r="T12" s="12">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2021</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>96401892819</v>
       </c>
       <c r="C13" s="12">
         <v>6.8</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="16">
+        <v>88427076592</v>
+      </c>
+      <c r="E13" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="F13" s="12">
         <v>2021</v>
       </c>
-      <c r="E13" s="12">
+      <c r="G13" s="12">
         <v>77847114593</v>
       </c>
-      <c r="F13" s="12">
+      <c r="H13" s="12">
         <v>6.1</v>
       </c>
-      <c r="G13" s="12">
+      <c r="I13" s="12">
+        <v>72161571102</v>
+      </c>
+      <c r="J13" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="K13" s="12">
         <v>2021</v>
       </c>
-      <c r="H13" s="12">
+      <c r="L13" s="12">
         <v>24018650198</v>
       </c>
-      <c r="I13" s="12">
+      <c r="M13" s="12">
         <v>17.3</v>
       </c>
-      <c r="J13" s="12">
+      <c r="N13" s="12">
+        <v>19636909390</v>
+      </c>
+      <c r="O13" s="12">
+        <v>25.5</v>
+      </c>
+      <c r="P13" s="12">
         <v>2021</v>
       </c>
-      <c r="K13" s="12">
-        <v>2361541771</v>
-      </c>
-      <c r="L13" s="12">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="Q13" s="12">
+        <v>24018650198</v>
+      </c>
+      <c r="R13" s="12">
+        <v>17.3</v>
+      </c>
+      <c r="S13" s="12">
+        <v>19636909390</v>
+      </c>
+      <c r="T13" s="12">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2022</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="16">
         <v>109356847526</v>
       </c>
       <c r="C14" s="12">
         <v>13.4</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="16">
+        <v>98663704366</v>
+      </c>
+      <c r="E14" s="12">
+        <v>11.6</v>
+      </c>
+      <c r="F14" s="12">
         <v>2022</v>
       </c>
-      <c r="E14" s="12">
+      <c r="G14" s="12">
         <v>87356664335</v>
       </c>
-      <c r="F14" s="12">
+      <c r="H14" s="12">
         <v>12.2</v>
       </c>
-      <c r="G14" s="12">
+      <c r="I14" s="12">
+        <v>79532225831</v>
+      </c>
+      <c r="J14" s="12">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K14" s="12">
         <v>2022</v>
       </c>
-      <c r="H14" s="12">
+      <c r="L14" s="12">
         <v>29520688963</v>
       </c>
-      <c r="I14" s="12">
+      <c r="M14" s="12">
         <v>22.9</v>
       </c>
-      <c r="J14" s="12">
+      <c r="N14" s="12">
+        <v>24674284550</v>
+      </c>
+      <c r="O14" s="12">
+        <v>25.7</v>
+      </c>
+      <c r="P14" s="12">
         <v>2022</v>
       </c>
-      <c r="K14" s="12">
-        <v>2178165284</v>
-      </c>
-      <c r="L14" s="12">
-        <v>-7.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="Q14" s="12">
+        <v>29520688963</v>
+      </c>
+      <c r="R14" s="12">
+        <v>22.9</v>
+      </c>
+      <c r="S14" s="12">
+        <v>24674284550</v>
+      </c>
+      <c r="T14" s="12">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2023</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>110297998619</v>
       </c>
       <c r="C15" s="12">
         <v>0.9</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="16">
+        <v>105352246321</v>
+      </c>
+      <c r="E15" s="12">
+        <v>6.8</v>
+      </c>
+      <c r="F15" s="12">
         <v>2023</v>
       </c>
-      <c r="E15" s="12">
+      <c r="G15" s="12">
         <v>88326961943</v>
       </c>
-      <c r="F15" s="12">
+      <c r="H15" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G15" s="12">
+      <c r="I15" s="12">
+        <v>84510246957</v>
+      </c>
+      <c r="J15" s="12">
+        <v>6.3</v>
+      </c>
+      <c r="K15" s="12">
         <v>2023</v>
       </c>
-      <c r="H15" s="12">
+      <c r="L15" s="12">
         <v>29313670162</v>
       </c>
-      <c r="I15" s="12">
+      <c r="M15" s="12">
         <v>-0.7</v>
       </c>
-      <c r="J15" s="12">
+      <c r="N15" s="12">
+        <v>27617669774</v>
+      </c>
+      <c r="O15" s="12">
+        <v>11.9</v>
+      </c>
+      <c r="P15" s="12">
         <v>2023</v>
       </c>
-      <c r="K15" s="12">
-        <v>1931942817</v>
-      </c>
-      <c r="L15" s="12">
-        <v>-11.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="Q15" s="12">
+        <v>29313670162</v>
+      </c>
+      <c r="R15" s="12">
+        <v>-0.7</v>
+      </c>
+      <c r="S15" s="12">
+        <v>27617669774</v>
+      </c>
+      <c r="T15" s="12">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2024</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>108958624456</v>
       </c>
       <c r="C16" s="12">
         <v>-1.2</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="16">
+        <v>109537823534</v>
+      </c>
+      <c r="E16" s="12">
+        <v>4</v>
+      </c>
+      <c r="F16" s="12">
         <v>2024</v>
       </c>
-      <c r="E16" s="12">
+      <c r="G16" s="12">
         <v>85820719878</v>
       </c>
-      <c r="F16" s="12">
+      <c r="H16" s="12">
         <v>-2.8</v>
       </c>
-      <c r="G16" s="12">
+      <c r="I16" s="12">
+        <v>87168115385</v>
+      </c>
+      <c r="J16" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="K16" s="12">
         <v>2024</v>
       </c>
-      <c r="H16" s="12">
+      <c r="L16" s="12">
         <v>29545740397</v>
       </c>
-      <c r="I16" s="12">
+      <c r="M16" s="12">
         <v>0.8</v>
       </c>
-      <c r="J16" s="12">
+      <c r="N16" s="12">
+        <v>29460033174</v>
+      </c>
+      <c r="O16" s="12">
+        <v>6.7</v>
+      </c>
+      <c r="P16" s="12">
         <v>2024</v>
       </c>
-      <c r="K16" s="12">
-        <v>1967676437</v>
-      </c>
-      <c r="L16" s="12">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Q16" s="12">
+        <v>29545740397</v>
+      </c>
+      <c r="R16" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="S16" s="12">
+        <v>29460033174</v>
+      </c>
+      <c r="T16" s="12">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2025</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="16">
         <v>91458463534</v>
       </c>
       <c r="C17" s="12">
         <v>-16.100000000000001</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="16">
+        <v>103571695536</v>
+      </c>
+      <c r="E17" s="12">
+        <v>-5.4</v>
+      </c>
+      <c r="F17" s="12">
         <v>2025</v>
       </c>
-      <c r="E17" s="12">
+      <c r="G17" s="12">
         <v>71847790594</v>
       </c>
-      <c r="F17" s="12">
+      <c r="H17" s="12">
         <v>-16.3</v>
       </c>
-      <c r="G17" s="12">
+      <c r="I17" s="12">
+        <v>81998490805</v>
+      </c>
+      <c r="J17" s="12">
+        <v>-5.9</v>
+      </c>
+      <c r="K17" s="12">
         <v>2025</v>
       </c>
-      <c r="H17" s="12">
+      <c r="L17" s="12">
         <v>24282987671</v>
       </c>
-      <c r="I17" s="12">
+      <c r="M17" s="12">
         <v>-17.8</v>
       </c>
-      <c r="J17" s="12">
+      <c r="N17" s="12">
+        <v>27714132743</v>
+      </c>
+      <c r="O17" s="12">
+        <v>-5.9</v>
+      </c>
+      <c r="P17" s="12">
         <v>2025</v>
       </c>
-      <c r="K17" s="12">
-        <v>1666230689</v>
-      </c>
-      <c r="L17" s="12">
-        <v>-15.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="C18" s="2"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="R21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S21" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="T21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="U21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="V21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="W21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="X21" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
-        <v>2011</v>
-      </c>
-      <c r="B22" s="6">
-        <v>6038308189</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1609261372</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1263595235</v>
-      </c>
-      <c r="E22" s="6">
-        <v>22096186144</v>
-      </c>
-      <c r="F22" s="6">
-        <v>16487977544</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-      <c r="K22" s="6">
-        <v>0</v>
-      </c>
-      <c r="L22" s="6">
-        <v>0</v>
-      </c>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8">
-        <v>2011</v>
-      </c>
-      <c r="O22" s="8">
-        <v>4864715771</v>
-      </c>
-      <c r="P22" s="8">
-        <v>3536600654</v>
-      </c>
-      <c r="Q22" s="8">
-        <v>2012561008</v>
-      </c>
-      <c r="R22" s="8">
-        <v>1663530196</v>
-      </c>
-      <c r="S22" s="8">
-        <v>1774982170</v>
-      </c>
-      <c r="T22" s="8">
-        <v>0</v>
-      </c>
-      <c r="U22" s="8">
-        <v>0</v>
-      </c>
-      <c r="V22" s="8">
-        <v>0</v>
-      </c>
-      <c r="W22" s="8">
-        <v>0</v>
-      </c>
-      <c r="X22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
-        <v>2012</v>
-      </c>
-      <c r="B23" s="6">
-        <v>6535676543</v>
-      </c>
-      <c r="C23" s="6">
-        <v>1790769991</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1284649656</v>
-      </c>
-      <c r="E23" s="6">
-        <v>26059427173</v>
-      </c>
-      <c r="F23" s="6">
-        <v>16787118910</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I23" s="6">
-        <v>11.3</v>
-      </c>
-      <c r="J23" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="K23" s="6">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="L23" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8">
-        <v>2012</v>
-      </c>
-      <c r="O23" s="8">
-        <v>5060457882</v>
-      </c>
-      <c r="P23" s="8">
-        <v>4257385589</v>
-      </c>
-      <c r="Q23" s="8">
-        <v>3437054248</v>
-      </c>
-      <c r="R23" s="8">
-        <v>2389505647</v>
-      </c>
-      <c r="S23" s="8">
-        <v>2140573355</v>
-      </c>
-      <c r="T23" s="8">
-        <v>4</v>
-      </c>
-      <c r="U23" s="8">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="V23" s="8">
-        <v>70.8</v>
-      </c>
-      <c r="W23" s="8">
-        <v>43.6</v>
-      </c>
-      <c r="X23" s="8">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A24" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B24" s="6">
-        <v>6720539116</v>
-      </c>
-      <c r="C24" s="6">
-        <v>1647162026</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1208347012</v>
-      </c>
-      <c r="E24" s="6">
-        <v>28480362957</v>
-      </c>
-      <c r="F24" s="6">
-        <v>17771320850</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="I24" s="6">
-        <v>-8</v>
-      </c>
-      <c r="J24" s="6">
+      <c r="Q17" s="12">
+        <v>24282987671</v>
+      </c>
+      <c r="R17" s="12">
+        <v>-17.8</v>
+      </c>
+      <c r="S17" s="12">
+        <v>27714132743</v>
+      </c>
+      <c r="T17" s="12">
         <v>-5.9</v>
-      </c>
-      <c r="K24" s="6">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="L24" s="6">
-        <v>5.9</v>
-      </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8">
-        <v>2013</v>
-      </c>
-      <c r="O24" s="8">
-        <v>4658234019</v>
-      </c>
-      <c r="P24" s="8">
-        <v>4734538987</v>
-      </c>
-      <c r="Q24" s="8">
-        <v>3325310016</v>
-      </c>
-      <c r="R24" s="8">
-        <v>2463128577</v>
-      </c>
-      <c r="S24" s="8">
-        <v>2227071535</v>
-      </c>
-      <c r="T24" s="8">
-        <v>-7.9</v>
-      </c>
-      <c r="U24" s="8">
-        <v>11.2</v>
-      </c>
-      <c r="V24" s="8">
-        <v>-3.3</v>
-      </c>
-      <c r="W24" s="8">
-        <v>3.1</v>
-      </c>
-      <c r="X24" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A25" s="6">
-        <v>2014</v>
-      </c>
-      <c r="B25" s="6">
-        <v>7222935669</v>
-      </c>
-      <c r="C25" s="6">
-        <v>1951987393</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1298625992</v>
-      </c>
-      <c r="E25" s="6">
-        <v>30596034836</v>
-      </c>
-      <c r="F25" s="6">
-        <v>19762265200</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="I25" s="6">
-        <v>18.5</v>
-      </c>
-      <c r="J25" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="K25" s="6">
-        <v>7.4</v>
-      </c>
-      <c r="L25" s="6">
-        <v>11.2</v>
-      </c>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8">
-        <v>2014</v>
-      </c>
-      <c r="O25" s="8">
-        <v>5896667346</v>
-      </c>
-      <c r="P25" s="8">
-        <v>5306199921</v>
-      </c>
-      <c r="Q25" s="8">
-        <v>4232062437</v>
-      </c>
-      <c r="R25" s="8">
-        <v>2765992281</v>
-      </c>
-      <c r="S25" s="8">
-        <v>2332522557</v>
-      </c>
-      <c r="T25" s="8">
-        <v>26.6</v>
-      </c>
-      <c r="U25" s="8">
-        <v>12.1</v>
-      </c>
-      <c r="V25" s="8">
-        <v>27.3</v>
-      </c>
-      <c r="W25" s="8">
-        <v>12.3</v>
-      </c>
-      <c r="X25" s="8">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A26" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B26" s="6">
-        <v>7415750345</v>
-      </c>
-      <c r="C26" s="6">
-        <v>1956338104</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1325243520</v>
-      </c>
-      <c r="E26" s="6">
-        <v>30978471369</v>
-      </c>
-      <c r="F26" s="6">
-        <v>20453398421</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
-        <v>2.7</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="J26" s="6">
-        <v>2</v>
-      </c>
-      <c r="K26" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="L26" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8">
-        <v>2015</v>
-      </c>
-      <c r="O26" s="8">
-        <v>5859068128</v>
-      </c>
-      <c r="P26" s="8">
-        <v>5045190237</v>
-      </c>
-      <c r="Q26" s="8">
-        <v>4738144949</v>
-      </c>
-      <c r="R26" s="8">
-        <v>3735932965</v>
-      </c>
-      <c r="S26" s="8">
-        <v>2241316976</v>
-      </c>
-      <c r="T26" s="8">
-        <v>-0.6</v>
-      </c>
-      <c r="U26" s="8">
-        <v>-4.9000000000000004</v>
-      </c>
-      <c r="V26" s="8">
-        <v>12</v>
-      </c>
-      <c r="W26" s="8">
-        <v>35.1</v>
-      </c>
-      <c r="X26" s="8">
-        <v>-3.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A27" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B27" s="6">
-        <v>7927651520</v>
-      </c>
-      <c r="C27" s="6">
-        <v>1853831312</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1057636036</v>
-      </c>
-      <c r="E27" s="6">
-        <v>31285251615</v>
-      </c>
-      <c r="F27" s="6">
-        <v>19784825324</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
-        <v>6.9</v>
-      </c>
-      <c r="I27" s="6">
-        <v>-5.2</v>
-      </c>
-      <c r="J27" s="6">
-        <v>-20.2</v>
-      </c>
-      <c r="K27" s="6">
-        <v>1</v>
-      </c>
-      <c r="L27" s="6">
-        <v>-3.3</v>
-      </c>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8">
-        <v>2016</v>
-      </c>
-      <c r="O27" s="8">
-        <v>6120524436</v>
-      </c>
-      <c r="P27" s="8">
-        <v>4954014378</v>
-      </c>
-      <c r="Q27" s="8">
-        <v>4676477774</v>
-      </c>
-      <c r="R27" s="8">
-        <v>2871035505</v>
-      </c>
-      <c r="S27" s="8">
-        <v>2529229298</v>
-      </c>
-      <c r="T27" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="U27" s="8">
-        <v>-1.8</v>
-      </c>
-      <c r="V27" s="8">
-        <v>-1.3</v>
-      </c>
-      <c r="W27" s="8">
-        <v>-23.2</v>
-      </c>
-      <c r="X27" s="8">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A28" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B28" s="6">
-        <v>9004612785</v>
-      </c>
-      <c r="C28" s="6">
-        <v>2064172182</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1127753784</v>
-      </c>
-      <c r="E28" s="6">
-        <v>37949556673</v>
-      </c>
-      <c r="F28" s="6">
-        <v>20840946602</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6">
-        <v>13.6</v>
-      </c>
-      <c r="I28" s="6">
-        <v>11.3</v>
-      </c>
-      <c r="J28" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="K28" s="6">
-        <v>21.3</v>
-      </c>
-      <c r="L28" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8">
-        <v>2017</v>
-      </c>
-      <c r="O28" s="8">
-        <v>7254962043</v>
-      </c>
-      <c r="P28" s="8">
-        <v>5582178147</v>
-      </c>
-      <c r="Q28" s="8">
-        <v>5717919110</v>
-      </c>
-      <c r="R28" s="8">
-        <v>3466777539</v>
-      </c>
-      <c r="S28" s="8">
-        <v>3049081464</v>
-      </c>
-      <c r="T28" s="8">
-        <v>18.5</v>
-      </c>
-      <c r="U28" s="8">
-        <v>12.7</v>
-      </c>
-      <c r="V28" s="8">
-        <v>22.3</v>
-      </c>
-      <c r="W28" s="8">
-        <v>20.8</v>
-      </c>
-      <c r="X28" s="8">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A29" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B29" s="6">
-        <v>8530204065</v>
-      </c>
-      <c r="C29" s="6">
-        <v>2731014476</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1377015875</v>
-      </c>
-      <c r="E29" s="6">
-        <v>44384479818</v>
-      </c>
-      <c r="F29" s="6">
-        <v>23302730378</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6">
-        <v>-5.3</v>
-      </c>
-      <c r="I29" s="6">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="J29" s="6">
-        <v>22.1</v>
-      </c>
-      <c r="K29" s="6">
-        <v>17</v>
-      </c>
-      <c r="L29" s="6">
-        <v>11.8</v>
-      </c>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8">
-        <v>2018</v>
-      </c>
-      <c r="O29" s="8">
-        <v>9353117433</v>
-      </c>
-      <c r="P29" s="8">
-        <v>6729301984</v>
-      </c>
-      <c r="Q29" s="8">
-        <v>6467329808</v>
-      </c>
-      <c r="R29" s="8">
-        <v>3971664595</v>
-      </c>
-      <c r="S29" s="8">
-        <v>3436079343</v>
-      </c>
-      <c r="T29" s="8">
-        <v>28.9</v>
-      </c>
-      <c r="U29" s="8">
-        <v>20.5</v>
-      </c>
-      <c r="V29" s="8">
-        <v>13.1</v>
-      </c>
-      <c r="W29" s="8">
-        <v>14.6</v>
-      </c>
-      <c r="X29" s="8">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A30" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B30" s="6">
-        <v>8068774621</v>
-      </c>
-      <c r="C30" s="6">
-        <v>2382900333</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1448509186</v>
-      </c>
-      <c r="E30" s="6">
-        <v>45452357025</v>
-      </c>
-      <c r="F30" s="6">
-        <v>21329440537</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
-        <v>-5.4</v>
-      </c>
-      <c r="I30" s="6">
-        <v>-12.7</v>
-      </c>
-      <c r="J30" s="6">
-        <v>5.2</v>
-      </c>
-      <c r="K30" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="L30" s="6">
-        <v>-8.5</v>
-      </c>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8">
-        <v>2019</v>
-      </c>
-      <c r="O30" s="8">
-        <v>8324788001</v>
-      </c>
-      <c r="P30" s="8">
-        <v>5906402282</v>
-      </c>
-      <c r="Q30" s="8">
-        <v>5839140183</v>
-      </c>
-      <c r="R30" s="8">
-        <v>4499905083</v>
-      </c>
-      <c r="S30" s="8">
-        <v>3219899053</v>
-      </c>
-      <c r="T30" s="8">
-        <v>-11</v>
-      </c>
-      <c r="U30" s="8">
-        <v>-12.2</v>
-      </c>
-      <c r="V30" s="8">
-        <v>-9.6999999999999993</v>
-      </c>
-      <c r="W30" s="8">
-        <v>13.3</v>
-      </c>
-      <c r="X30" s="8">
-        <v>-6.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A31" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B31" s="6">
-        <v>8477929468</v>
-      </c>
-      <c r="C31" s="6">
-        <v>3407452410</v>
-      </c>
-      <c r="D31" s="6">
-        <v>2205145302</v>
-      </c>
-      <c r="E31" s="6">
-        <v>53697334055</v>
-      </c>
-      <c r="F31" s="6">
-        <v>22478375592</v>
-      </c>
-      <c r="G31" s="6">
-        <v>0</v>
-      </c>
-      <c r="H31" s="6">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I31" s="6">
-        <v>43</v>
-      </c>
-      <c r="J31" s="6">
-        <v>52.2</v>
-      </c>
-      <c r="K31" s="6">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="L31" s="6">
-        <v>5.4</v>
-      </c>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8">
-        <v>2020</v>
-      </c>
-      <c r="O31" s="8">
-        <v>8674331165</v>
-      </c>
-      <c r="P31" s="8">
-        <v>8514101818</v>
-      </c>
-      <c r="Q31" s="8">
-        <v>5614449935</v>
-      </c>
-      <c r="R31" s="8">
-        <v>6058957808</v>
-      </c>
-      <c r="S31" s="8">
-        <v>3143211089</v>
-      </c>
-      <c r="T31" s="8">
-        <v>4.2</v>
-      </c>
-      <c r="U31" s="8">
-        <v>44.2</v>
-      </c>
-      <c r="V31" s="8">
-        <v>-3.8</v>
-      </c>
-      <c r="W31" s="8">
-        <v>34.6</v>
-      </c>
-      <c r="X31" s="8">
-        <v>-2.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A32" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B32" s="6">
-        <v>7962538879</v>
-      </c>
-      <c r="C32" s="6">
-        <v>3695746515</v>
-      </c>
-      <c r="D32" s="6">
-        <v>2246638673</v>
-      </c>
-      <c r="E32" s="6">
-        <v>60876028773</v>
-      </c>
-      <c r="F32" s="6">
-        <v>21654119841</v>
-      </c>
-      <c r="G32" s="6">
-        <v>0</v>
-      </c>
-      <c r="H32" s="6">
-        <v>-6.1</v>
-      </c>
-      <c r="I32" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="J32" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="K32" s="6">
-        <v>13.4</v>
-      </c>
-      <c r="L32" s="6">
-        <v>-3.7</v>
-      </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8">
-        <v>2021</v>
-      </c>
-      <c r="O32" s="8">
-        <v>9766189335</v>
-      </c>
-      <c r="P32" s="8">
-        <v>10511294650</v>
-      </c>
-      <c r="Q32" s="8">
-        <v>5457554535</v>
-      </c>
-      <c r="R32" s="8">
-        <v>6334515811</v>
-      </c>
-      <c r="S32" s="8">
-        <v>4539751810</v>
-      </c>
-      <c r="T32" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="U32" s="8">
-        <v>23.5</v>
-      </c>
-      <c r="V32" s="8">
-        <v>-2.8</v>
-      </c>
-      <c r="W32" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="X32" s="8">
-        <v>44.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A33" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B33" s="6">
-        <v>7795879105</v>
-      </c>
-      <c r="C33" s="6">
-        <v>5102916355</v>
-      </c>
-      <c r="D33" s="6">
-        <v>2521286073</v>
-      </c>
-      <c r="E33" s="6">
-        <v>71197475878</v>
-      </c>
-      <c r="F33" s="6">
-        <v>22764278455</v>
-      </c>
-      <c r="G33" s="6">
-        <v>0</v>
-      </c>
-      <c r="H33" s="6">
-        <v>-2.1</v>
-      </c>
-      <c r="I33" s="6">
-        <v>38.1</v>
-      </c>
-      <c r="J33" s="6">
-        <v>12.2</v>
-      </c>
-      <c r="K33" s="6">
-        <v>17</v>
-      </c>
-      <c r="L33" s="6">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8">
-        <v>2022</v>
-      </c>
-      <c r="O33" s="8">
-        <v>10484764064</v>
-      </c>
-      <c r="P33" s="8">
-        <v>10003953669</v>
-      </c>
-      <c r="Q33" s="8">
-        <v>6672132389</v>
-      </c>
-      <c r="R33" s="8">
-        <v>7769136078</v>
-      </c>
-      <c r="S33" s="8">
-        <v>5804552876</v>
-      </c>
-      <c r="T33" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="U33" s="8">
-        <v>-4.8</v>
-      </c>
-      <c r="V33" s="8">
-        <v>22.3</v>
-      </c>
-      <c r="W33" s="8">
-        <v>22.6</v>
-      </c>
-      <c r="X33" s="8">
-        <v>27.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A34" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B34" s="6">
-        <v>6700737104</v>
-      </c>
-      <c r="C34" s="6">
-        <v>4539938346</v>
-      </c>
-      <c r="D34" s="6">
-        <v>2390463128</v>
-      </c>
-      <c r="E34" s="6">
-        <v>74943767296</v>
-      </c>
-      <c r="F34" s="6">
-        <v>21741392745</v>
-      </c>
-      <c r="G34" s="6">
-        <v>0</v>
-      </c>
-      <c r="H34" s="6">
-        <v>-14</v>
-      </c>
-      <c r="I34" s="6">
-        <v>-11</v>
-      </c>
-      <c r="J34" s="6">
-        <v>-5.2</v>
-      </c>
-      <c r="K34" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="L34" s="6">
-        <v>-4.5</v>
-      </c>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8">
-        <v>2023</v>
-      </c>
-      <c r="O34" s="8">
-        <v>10740698284</v>
-      </c>
-      <c r="P34" s="8">
-        <v>8554190125</v>
-      </c>
-      <c r="Q34" s="8">
-        <v>7492030119</v>
-      </c>
-      <c r="R34" s="8">
-        <v>6922418053</v>
-      </c>
-      <c r="S34" s="8">
-        <v>6219910522</v>
-      </c>
-      <c r="T34" s="8">
-        <v>2.4</v>
-      </c>
-      <c r="U34" s="8">
-        <v>-14.5</v>
-      </c>
-      <c r="V34" s="8">
-        <v>12.3</v>
-      </c>
-      <c r="W34" s="8">
-        <v>-10.9</v>
-      </c>
-      <c r="X34" s="8">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A35" s="6">
-        <v>2024</v>
-      </c>
-      <c r="B35" s="6">
-        <v>6114369501</v>
-      </c>
-      <c r="C35" s="6">
-        <v>5227237371</v>
-      </c>
-      <c r="D35" s="6">
-        <v>2330306151</v>
-      </c>
-      <c r="E35" s="6">
-        <v>74786945803</v>
-      </c>
-      <c r="F35" s="6">
-        <v>20518065630</v>
-      </c>
-      <c r="G35" s="6">
-        <v>0</v>
-      </c>
-      <c r="H35" s="6">
-        <v>-8.8000000000000007</v>
-      </c>
-      <c r="I35" s="6">
-        <v>15.1</v>
-      </c>
-      <c r="J35" s="6">
-        <v>-2.5</v>
-      </c>
-      <c r="K35" s="6">
-        <v>-0.2</v>
-      </c>
-      <c r="L35" s="6">
-        <v>-5.6</v>
-      </c>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8">
-        <v>2024</v>
-      </c>
-      <c r="O35" s="8">
-        <v>10223358971</v>
-      </c>
-      <c r="P35" s="8">
-        <v>8694793960</v>
-      </c>
-      <c r="Q35" s="8">
-        <v>8341171565</v>
-      </c>
-      <c r="R35" s="8">
-        <v>6051249888</v>
-      </c>
-      <c r="S35" s="8">
-        <v>5483488839</v>
-      </c>
-      <c r="T35" s="8">
-        <v>-4.8</v>
-      </c>
-      <c r="U35" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="V35" s="8">
-        <v>11.3</v>
-      </c>
-      <c r="W35" s="8">
-        <v>-12.6</v>
-      </c>
-      <c r="X35" s="8">
-        <v>-11.8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A36" s="6">
-        <v>2025</v>
-      </c>
-      <c r="B36" s="6">
-        <v>4009716868</v>
-      </c>
-      <c r="C36" s="6">
-        <v>5143876641</v>
-      </c>
-      <c r="D36" s="6">
-        <v>2132123743</v>
-      </c>
-      <c r="E36" s="6">
-        <v>62699129647</v>
-      </c>
-      <c r="F36" s="6">
-        <v>17484300769</v>
-      </c>
-      <c r="G36" s="6">
-        <v>0</v>
-      </c>
-      <c r="H36" s="6">
-        <v>-34.4</v>
-      </c>
-      <c r="I36" s="6">
-        <v>-1.6</v>
-      </c>
-      <c r="J36" s="6">
-        <v>-8.5</v>
-      </c>
-      <c r="K36" s="6">
-        <v>-16.2</v>
-      </c>
-      <c r="L36" s="6">
-        <v>-14.8</v>
-      </c>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8">
-        <v>2025</v>
-      </c>
-      <c r="O36" s="8">
-        <v>8705732871</v>
-      </c>
-      <c r="P36" s="8">
-        <v>7746657654</v>
-      </c>
-      <c r="Q36" s="8">
-        <v>6459714240</v>
-      </c>
-      <c r="R36" s="8">
-        <v>5635041604</v>
-      </c>
-      <c r="S36" s="8">
-        <v>3956905051</v>
-      </c>
-      <c r="T36" s="8">
-        <v>-14.8</v>
-      </c>
-      <c r="U36" s="8">
-        <v>-10.9</v>
-      </c>
-      <c r="V36" s="8">
-        <v>-22.6</v>
-      </c>
-      <c r="W36" s="8">
-        <v>-6.9</v>
-      </c>
-      <c r="X36" s="8">
-        <v>-27.8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="O40" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P40" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q40" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="R40" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S40" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="T40" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="U40" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="V40" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="W40" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="X40" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A41" s="6">
-        <v>2011</v>
-      </c>
-      <c r="B41" s="6">
-        <v>5584407902</v>
-      </c>
-      <c r="C41" s="6">
-        <v>1490620651</v>
-      </c>
-      <c r="D41" s="6">
-        <v>846747761</v>
-      </c>
-      <c r="E41" s="6">
-        <v>17068150602</v>
-      </c>
-      <c r="F41" s="6">
-        <v>15707265435</v>
-      </c>
-      <c r="G41" s="6">
-        <v>0</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0</v>
-      </c>
-      <c r="I41" s="6">
-        <v>0</v>
-      </c>
-      <c r="J41" s="6">
-        <v>0</v>
-      </c>
-      <c r="K41" s="6">
-        <v>0</v>
-      </c>
-      <c r="L41" s="6">
-        <v>0</v>
-      </c>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8">
-        <v>2011</v>
-      </c>
-      <c r="O41" s="8">
-        <v>4844550622</v>
-      </c>
-      <c r="P41" s="8">
-        <v>3136600654</v>
-      </c>
-      <c r="Q41" s="8">
-        <v>1842503401</v>
-      </c>
-      <c r="R41" s="8">
-        <v>1663530196</v>
-      </c>
-      <c r="S41" s="8">
-        <v>1774982170</v>
-      </c>
-      <c r="T41" s="8">
-        <v>0</v>
-      </c>
-      <c r="U41" s="8">
-        <v>0</v>
-      </c>
-      <c r="V41" s="8">
-        <v>0</v>
-      </c>
-      <c r="W41" s="8">
-        <v>0</v>
-      </c>
-      <c r="X41" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A42" s="6">
-        <v>2012</v>
-      </c>
-      <c r="B42" s="6">
-        <v>6025283926</v>
-      </c>
-      <c r="C42" s="6">
-        <v>1611330549</v>
-      </c>
-      <c r="D42" s="6">
-        <v>839027590</v>
-      </c>
-      <c r="E42" s="6">
-        <v>21117117565</v>
-      </c>
-      <c r="F42" s="6">
-        <v>15988611040</v>
-      </c>
-      <c r="G42" s="6">
-        <v>0</v>
-      </c>
-      <c r="H42" s="6">
-        <v>7.9</v>
-      </c>
-      <c r="I42" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="J42" s="6">
-        <v>-0.9</v>
-      </c>
-      <c r="K42" s="6">
-        <v>23.7</v>
-      </c>
-      <c r="L42" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8">
-        <v>2012</v>
-      </c>
-      <c r="O42" s="8">
-        <v>5044061734</v>
-      </c>
-      <c r="P42" s="8">
-        <v>3657385589</v>
-      </c>
-      <c r="Q42" s="8">
-        <v>3395052315</v>
-      </c>
-      <c r="R42" s="8">
-        <v>2389505647</v>
-      </c>
-      <c r="S42" s="8">
-        <v>2140573355</v>
-      </c>
-      <c r="T42" s="8">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="U42" s="8">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="V42" s="8">
-        <v>84.3</v>
-      </c>
-      <c r="W42" s="8">
-        <v>43.6</v>
-      </c>
-      <c r="X42" s="8">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A43" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B43" s="6">
-        <v>6273764184</v>
-      </c>
-      <c r="C43" s="6">
-        <v>1488707708</v>
-      </c>
-      <c r="D43" s="6">
-        <v>726485194</v>
-      </c>
-      <c r="E43" s="6">
-        <v>22767451712</v>
-      </c>
-      <c r="F43" s="6">
-        <v>16872408147</v>
-      </c>
-      <c r="G43" s="6">
-        <v>0</v>
-      </c>
-      <c r="H43" s="6">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I43" s="6">
-        <v>-7.6</v>
-      </c>
-      <c r="J43" s="6">
-        <v>-13.4</v>
-      </c>
-      <c r="K43" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="L43" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8">
-        <v>2013</v>
-      </c>
-      <c r="O43" s="8">
-        <v>4646522487</v>
-      </c>
-      <c r="P43" s="8">
-        <v>4134538987</v>
-      </c>
-      <c r="Q43" s="8">
-        <v>3288876798</v>
-      </c>
-      <c r="R43" s="8">
-        <v>2463128577</v>
-      </c>
-      <c r="S43" s="8">
-        <v>2227071535</v>
-      </c>
-      <c r="T43" s="8">
-        <v>-7.9</v>
-      </c>
-      <c r="U43" s="8">
-        <v>13</v>
-      </c>
-      <c r="V43" s="8">
-        <v>-3.1</v>
-      </c>
-      <c r="W43" s="8">
-        <v>3.1</v>
-      </c>
-      <c r="X43" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A44" s="6">
-        <v>2014</v>
-      </c>
-      <c r="B44" s="6">
-        <v>6757966404</v>
-      </c>
-      <c r="C44" s="6">
-        <v>1816008823</v>
-      </c>
-      <c r="D44" s="6">
-        <v>785322798</v>
-      </c>
-      <c r="E44" s="6">
-        <v>24360934100</v>
-      </c>
-      <c r="F44" s="6">
-        <v>18793197360</v>
-      </c>
-      <c r="G44" s="6">
-        <v>0</v>
-      </c>
-      <c r="H44" s="6">
-        <v>7.7</v>
-      </c>
-      <c r="I44" s="6">
-        <v>22</v>
-      </c>
-      <c r="J44" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="K44" s="6">
-        <v>7</v>
-      </c>
-      <c r="L44" s="6">
-        <v>11.4</v>
-      </c>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8">
-        <v>2014</v>
-      </c>
-      <c r="O44" s="8">
-        <v>5889640430</v>
-      </c>
-      <c r="P44" s="8">
-        <v>4706199921</v>
-      </c>
-      <c r="Q44" s="8">
-        <v>4224726991</v>
-      </c>
-      <c r="R44" s="8">
-        <v>2703131422</v>
-      </c>
-      <c r="S44" s="8">
-        <v>2332522557</v>
-      </c>
-      <c r="T44" s="8">
-        <v>26.8</v>
-      </c>
-      <c r="U44" s="8">
-        <v>13.8</v>
-      </c>
-      <c r="V44" s="8">
-        <v>28.5</v>
-      </c>
-      <c r="W44" s="8">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="X44" s="8">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A45" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B45" s="6">
-        <v>7077312597</v>
-      </c>
-      <c r="C45" s="6">
-        <v>1861834031</v>
-      </c>
-      <c r="D45" s="6">
-        <v>809179392</v>
-      </c>
-      <c r="E45" s="6">
-        <v>24732209544</v>
-      </c>
-      <c r="F45" s="6">
-        <v>19006133760</v>
-      </c>
-      <c r="G45" s="6">
-        <v>0</v>
-      </c>
-      <c r="H45" s="6">
-        <v>4.7</v>
-      </c>
-      <c r="I45" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="J45" s="6">
-        <v>3</v>
-      </c>
-      <c r="K45" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="L45" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8">
-        <v>2015</v>
-      </c>
-      <c r="O45" s="8">
-        <v>5856725828</v>
-      </c>
-      <c r="P45" s="8">
-        <v>4445190237</v>
-      </c>
-      <c r="Q45" s="8">
-        <v>4736382397</v>
-      </c>
-      <c r="R45" s="8">
-        <v>3178110585</v>
-      </c>
-      <c r="S45" s="8">
-        <v>2241316976</v>
-      </c>
-      <c r="T45" s="8">
-        <v>-0.6</v>
-      </c>
-      <c r="U45" s="8">
-        <v>-5.5</v>
-      </c>
-      <c r="V45" s="8">
-        <v>12.1</v>
-      </c>
-      <c r="W45" s="8">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="X45" s="8">
-        <v>-3.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A46" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B46" s="6">
-        <v>7685845516</v>
-      </c>
-      <c r="C46" s="6">
-        <v>1796729322</v>
-      </c>
-      <c r="D46" s="6">
-        <v>580863217</v>
-      </c>
-      <c r="E46" s="6">
-        <v>25130402600</v>
-      </c>
-      <c r="F46" s="6">
-        <v>18504749158</v>
-      </c>
-      <c r="G46" s="6">
-        <v>0</v>
-      </c>
-      <c r="H46" s="6">
-        <v>8.6</v>
-      </c>
-      <c r="I46" s="6">
-        <v>-3.5</v>
-      </c>
-      <c r="J46" s="6">
-        <v>-28.2</v>
-      </c>
-      <c r="K46" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="L46" s="6">
-        <v>-2.6</v>
-      </c>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8">
-        <v>2016</v>
-      </c>
-      <c r="O46" s="8">
-        <v>6120524444</v>
-      </c>
-      <c r="P46" s="8">
-        <v>4354014378</v>
-      </c>
-      <c r="Q46" s="8">
-        <v>4676477774</v>
-      </c>
-      <c r="R46" s="8">
-        <v>2411035505</v>
-      </c>
-      <c r="S46" s="8">
-        <v>2529229298</v>
-      </c>
-      <c r="T46" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="U46" s="8">
-        <v>-2.1</v>
-      </c>
-      <c r="V46" s="8">
-        <v>-1.3</v>
-      </c>
-      <c r="W46" s="8">
-        <v>-24.1</v>
-      </c>
-      <c r="X46" s="8">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A47" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B47" s="6">
-        <v>8725426575</v>
-      </c>
-      <c r="C47" s="6">
-        <v>2029480939</v>
-      </c>
-      <c r="D47" s="6">
-        <v>681656292</v>
-      </c>
-      <c r="E47" s="6">
-        <v>30174182740</v>
-      </c>
-      <c r="F47" s="6">
-        <v>19384067484</v>
-      </c>
-      <c r="G47" s="6">
-        <v>0</v>
-      </c>
-      <c r="H47" s="6">
-        <v>13.5</v>
-      </c>
-      <c r="I47" s="6">
-        <v>13</v>
-      </c>
-      <c r="J47" s="6">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="K47" s="6">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="L47" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8">
-        <v>2017</v>
-      </c>
-      <c r="O47" s="8">
-        <v>7254962051</v>
-      </c>
-      <c r="P47" s="8">
-        <v>4982178147</v>
-      </c>
-      <c r="Q47" s="8">
-        <v>4810331396</v>
-      </c>
-      <c r="R47" s="8">
-        <v>3006777539</v>
-      </c>
-      <c r="S47" s="8">
-        <v>3049081464</v>
-      </c>
-      <c r="T47" s="8">
-        <v>18.5</v>
-      </c>
-      <c r="U47" s="8">
-        <v>14.4</v>
-      </c>
-      <c r="V47" s="8">
-        <v>2.9</v>
-      </c>
-      <c r="W47" s="8">
-        <v>24.7</v>
-      </c>
-      <c r="X47" s="8">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A48" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B48" s="6">
-        <v>8092781243</v>
-      </c>
-      <c r="C48" s="6">
-        <v>2699418203</v>
-      </c>
-      <c r="D48" s="6">
-        <v>883886472</v>
-      </c>
-      <c r="E48" s="6">
-        <v>35686919603</v>
-      </c>
-      <c r="F48" s="6">
-        <v>21527582215</v>
-      </c>
-      <c r="G48" s="6">
-        <v>0</v>
-      </c>
-      <c r="H48" s="6">
-        <v>-7.3</v>
-      </c>
-      <c r="I48" s="6">
-        <v>33</v>
-      </c>
-      <c r="J48" s="6">
-        <v>29.7</v>
-      </c>
-      <c r="K48" s="6">
-        <v>18.3</v>
-      </c>
-      <c r="L48" s="6">
-        <v>11.1</v>
-      </c>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8">
-        <v>2018</v>
-      </c>
-      <c r="O48" s="8">
-        <v>9353117441</v>
-      </c>
-      <c r="P48" s="8">
-        <v>6617501984</v>
-      </c>
-      <c r="Q48" s="8">
-        <v>5582806007</v>
-      </c>
-      <c r="R48" s="8">
-        <v>3721664595</v>
-      </c>
-      <c r="S48" s="8">
-        <v>3436079343</v>
-      </c>
-      <c r="T48" s="8">
-        <v>28.9</v>
-      </c>
-      <c r="U48" s="8">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="V48" s="8">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="W48" s="8">
-        <v>23.8</v>
-      </c>
-      <c r="X48" s="8">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A49" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B49" s="6">
-        <v>7523257591</v>
-      </c>
-      <c r="C49" s="6">
-        <v>2143651321</v>
-      </c>
-      <c r="D49" s="6">
-        <v>934289213</v>
-      </c>
-      <c r="E49" s="6">
-        <v>35261500479</v>
-      </c>
-      <c r="F49" s="6">
-        <v>19417019044</v>
-      </c>
-      <c r="G49" s="6">
-        <v>0</v>
-      </c>
-      <c r="H49" s="6">
-        <v>-7</v>
-      </c>
-      <c r="I49" s="6">
-        <v>-20.6</v>
-      </c>
-      <c r="J49" s="6">
-        <v>5.7</v>
-      </c>
-      <c r="K49" s="6">
-        <v>-1.2</v>
-      </c>
-      <c r="L49" s="6">
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8">
-        <v>2019</v>
-      </c>
-      <c r="O49" s="8">
-        <v>8143595086</v>
-      </c>
-      <c r="P49" s="8">
-        <v>5794602282</v>
-      </c>
-      <c r="Q49" s="8">
-        <v>4798841011</v>
-      </c>
-      <c r="R49" s="8">
-        <v>4249905083</v>
-      </c>
-      <c r="S49" s="8">
-        <v>3219899053</v>
-      </c>
-      <c r="T49" s="8">
-        <v>-12.9</v>
-      </c>
-      <c r="U49" s="8">
-        <v>-12.4</v>
-      </c>
-      <c r="V49" s="8">
-        <v>-14</v>
-      </c>
-      <c r="W49" s="8">
-        <v>14.2</v>
-      </c>
-      <c r="X49" s="8">
-        <v>-6.3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A50" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B50" s="6">
-        <v>7827024369</v>
-      </c>
-      <c r="C50" s="6">
-        <v>2763280436</v>
-      </c>
-      <c r="D50" s="6">
-        <v>1537485795</v>
-      </c>
-      <c r="E50" s="6">
-        <v>41028713682</v>
-      </c>
-      <c r="F50" s="6">
-        <v>20270258356</v>
-      </c>
-      <c r="G50" s="6">
-        <v>0</v>
-      </c>
-      <c r="H50" s="6">
-        <v>4</v>
-      </c>
-      <c r="I50" s="6">
-        <v>28.9</v>
-      </c>
-      <c r="J50" s="6">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="K50" s="6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="L50" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8">
-        <v>2020</v>
-      </c>
-      <c r="O50" s="8">
-        <v>8326421048</v>
-      </c>
-      <c r="P50" s="8">
-        <v>8402301818</v>
-      </c>
-      <c r="Q50" s="8">
-        <v>4180316613</v>
-      </c>
-      <c r="R50" s="8">
-        <v>5808957808</v>
-      </c>
-      <c r="S50" s="8">
-        <v>3143211089</v>
-      </c>
-      <c r="T50" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="U50" s="8">
-        <v>45</v>
-      </c>
-      <c r="V50" s="8">
-        <v>-12.9</v>
-      </c>
-      <c r="W50" s="8">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="X50" s="8">
-        <v>-2.4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A51" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B51" s="6">
-        <v>7217393556</v>
-      </c>
-      <c r="C51" s="6">
-        <v>2946645684</v>
-      </c>
-      <c r="D51" s="6">
-        <v>1562552617</v>
-      </c>
-      <c r="E51" s="6">
-        <v>46434821718</v>
-      </c>
-      <c r="F51" s="6">
-        <v>19718880880</v>
-      </c>
-      <c r="G51" s="6">
-        <v>0</v>
-      </c>
-      <c r="H51" s="6">
-        <v>-7.8</v>
-      </c>
-      <c r="I51" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="J51" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="K51" s="6">
-        <v>13.2</v>
-      </c>
-      <c r="L51" s="6">
-        <v>-2.7</v>
-      </c>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8">
-        <v>2021</v>
-      </c>
-      <c r="O51" s="8">
-        <v>9462734702</v>
-      </c>
-      <c r="P51" s="8">
-        <v>10399494650</v>
-      </c>
-      <c r="Q51" s="8">
-        <v>4120223674</v>
-      </c>
-      <c r="R51" s="8">
-        <v>6084515811</v>
-      </c>
-      <c r="S51" s="8">
-        <v>4539751810</v>
-      </c>
-      <c r="T51" s="8">
-        <v>13.6</v>
-      </c>
-      <c r="U51" s="8">
-        <v>23.8</v>
-      </c>
-      <c r="V51" s="8">
-        <v>-1.4</v>
-      </c>
-      <c r="W51" s="8">
-        <v>4.7</v>
-      </c>
-      <c r="X51" s="8">
-        <v>44.4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A52" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B52" s="6">
-        <v>6765945138</v>
-      </c>
-      <c r="C52" s="6">
-        <v>4259062274</v>
-      </c>
-      <c r="D52" s="6">
-        <v>1661545865</v>
-      </c>
-      <c r="E52" s="6">
-        <v>53441523498</v>
-      </c>
-      <c r="F52" s="6">
-        <v>21253575900</v>
-      </c>
-      <c r="G52" s="6">
-        <v>0</v>
-      </c>
-      <c r="H52" s="6">
-        <v>-6.3</v>
-      </c>
-      <c r="I52" s="6">
-        <v>44.5</v>
-      </c>
-      <c r="J52" s="6">
-        <v>6.3</v>
-      </c>
-      <c r="K52" s="6">
-        <v>15.1</v>
-      </c>
-      <c r="L52" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8">
-        <v>2022</v>
-      </c>
-      <c r="O52" s="8">
-        <v>10230996477</v>
-      </c>
-      <c r="P52" s="8">
-        <v>9892153669</v>
-      </c>
-      <c r="Q52" s="8">
-        <v>3887196709</v>
-      </c>
-      <c r="R52" s="8">
-        <v>7519136078</v>
-      </c>
-      <c r="S52" s="8">
-        <v>5804552876</v>
-      </c>
-      <c r="T52" s="8">
-        <v>8.1</v>
-      </c>
-      <c r="U52" s="8">
-        <v>-4.9000000000000004</v>
-      </c>
-      <c r="V52" s="8">
-        <v>-5.7</v>
-      </c>
-      <c r="W52" s="8">
-        <v>23.6</v>
-      </c>
-      <c r="X52" s="8">
-        <v>27.9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A53" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B53" s="6">
-        <v>5717972363</v>
-      </c>
-      <c r="C53" s="6">
-        <v>3592961441</v>
-      </c>
-      <c r="D53" s="6">
-        <v>1535472069</v>
-      </c>
-      <c r="E53" s="6">
-        <v>57136286446</v>
-      </c>
-      <c r="F53" s="6">
-        <v>20362569624</v>
-      </c>
-      <c r="G53" s="6">
-        <v>0</v>
-      </c>
-      <c r="H53" s="6">
-        <v>-15.5</v>
-      </c>
-      <c r="I53" s="6">
-        <v>-15.6</v>
-      </c>
-      <c r="J53" s="6">
-        <v>-7.6</v>
-      </c>
-      <c r="K53" s="6">
-        <v>6.9</v>
-      </c>
-      <c r="L53" s="6">
-        <v>-4.2</v>
-      </c>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8">
-        <v>2023</v>
-      </c>
-      <c r="O53" s="8">
-        <v>10554873739</v>
-      </c>
-      <c r="P53" s="8">
-        <v>8442390125</v>
-      </c>
-      <c r="Q53" s="8">
-        <v>3842567803</v>
-      </c>
-      <c r="R53" s="8">
-        <v>6672418053</v>
-      </c>
-      <c r="S53" s="8">
-        <v>6219910522</v>
-      </c>
-      <c r="T53" s="8">
-        <v>3.2</v>
-      </c>
-      <c r="U53" s="8">
-        <v>-14.7</v>
-      </c>
-      <c r="V53" s="8">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="W53" s="8">
-        <v>-11.3</v>
-      </c>
-      <c r="X53" s="8">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A54" s="6">
-        <v>2024</v>
-      </c>
-      <c r="B54" s="6">
-        <v>4914851518</v>
-      </c>
-      <c r="C54" s="6">
-        <v>4070591820</v>
-      </c>
-      <c r="D54" s="6">
-        <v>1602671297</v>
-      </c>
-      <c r="E54" s="6">
-        <v>56172623815</v>
-      </c>
-      <c r="F54" s="6">
-        <v>19078281428</v>
-      </c>
-      <c r="G54" s="6">
-        <v>0</v>
-      </c>
-      <c r="H54" s="6">
-        <v>-14</v>
-      </c>
-      <c r="I54" s="6">
-        <v>13.3</v>
-      </c>
-      <c r="J54" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="K54" s="6">
-        <v>-1.7</v>
-      </c>
-      <c r="L54" s="6">
-        <v>-6.3</v>
-      </c>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8">
-        <v>2024</v>
-      </c>
-      <c r="O54" s="8">
-        <v>10111366522</v>
-      </c>
-      <c r="P54" s="8">
-        <v>8582993960</v>
-      </c>
-      <c r="Q54" s="8">
-        <v>4778306271</v>
-      </c>
-      <c r="R54" s="8">
-        <v>5801249888</v>
-      </c>
-      <c r="S54" s="8">
-        <v>5483488839</v>
-      </c>
-      <c r="T54" s="8">
-        <v>-4.2</v>
-      </c>
-      <c r="U54" s="8">
-        <v>1.7</v>
-      </c>
-      <c r="V54" s="8">
-        <v>24.4</v>
-      </c>
-      <c r="W54" s="8">
-        <v>-13.1</v>
-      </c>
-      <c r="X54" s="8">
-        <v>-11.8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A55" s="6">
-        <v>2025</v>
-      </c>
-      <c r="B55" s="6">
-        <v>2928396554</v>
-      </c>
-      <c r="C55" s="6">
-        <v>4133379734</v>
-      </c>
-      <c r="D55" s="6">
-        <v>1428765599</v>
-      </c>
-      <c r="E55" s="6">
-        <v>47331103210</v>
-      </c>
-      <c r="F55" s="6">
-        <v>16034892874</v>
-      </c>
-      <c r="G55" s="6">
-        <v>0</v>
-      </c>
-      <c r="H55" s="6">
-        <v>-40.4</v>
-      </c>
-      <c r="I55" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="J55" s="6">
-        <v>-10.9</v>
-      </c>
-      <c r="K55" s="6">
-        <v>-15.7</v>
-      </c>
-      <c r="L55" s="6">
-        <v>-16</v>
-      </c>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8">
-        <v>2025</v>
-      </c>
-      <c r="O55" s="8">
-        <v>8648310292</v>
-      </c>
-      <c r="P55" s="8">
-        <v>7634857654</v>
-      </c>
-      <c r="Q55" s="8">
-        <v>3651262378</v>
-      </c>
-      <c r="R55" s="8">
-        <v>5385041604</v>
-      </c>
-      <c r="S55" s="8">
-        <v>3956905051</v>
-      </c>
-      <c r="T55" s="8">
-        <v>-14.5</v>
-      </c>
-      <c r="U55" s="8">
-        <v>-11</v>
-      </c>
-      <c r="V55" s="8">
-        <v>-23.6</v>
-      </c>
-      <c r="W55" s="8">
-        <v>-7.2</v>
-      </c>
-      <c r="X55" s="8">
-        <v>-27.8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8"/>
-      <c r="X56" s="8"/>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
-      <c r="V57" s="8"/>
-      <c r="W57" s="8"/>
-      <c r="X57" s="8"/>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
-      <c r="U58" s="8"/>
-      <c r="V58" s="8"/>
-      <c r="W58" s="8"/>
-      <c r="X58" s="8"/>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A59" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L59" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="O59" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="P59" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q59" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="R59" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S59" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="T59" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="U59" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="V59" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="W59" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="X59" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A60" s="6">
-        <v>2011</v>
-      </c>
-      <c r="B60" s="6">
-        <v>426598264</v>
-      </c>
-      <c r="C60" s="6">
-        <v>209610855</v>
-      </c>
-      <c r="D60" s="6">
-        <v>455785001</v>
-      </c>
-      <c r="E60" s="6">
-        <v>5396045108</v>
-      </c>
-      <c r="F60" s="6">
-        <v>1078153763</v>
-      </c>
-      <c r="G60" s="6">
-        <v>0</v>
-      </c>
-      <c r="H60" s="6">
-        <v>0</v>
-      </c>
-      <c r="I60" s="6">
-        <v>0</v>
-      </c>
-      <c r="J60" s="6">
-        <v>0</v>
-      </c>
-      <c r="K60" s="6">
-        <v>0</v>
-      </c>
-      <c r="L60" s="6">
-        <v>0</v>
-      </c>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8">
-        <v>2011</v>
-      </c>
-      <c r="O60" s="8">
-        <v>561063746</v>
-      </c>
-      <c r="P60" s="8">
-        <v>3001667</v>
-      </c>
-      <c r="Q60" s="8">
-        <v>264458098</v>
-      </c>
-      <c r="R60" s="8">
-        <v>598217248</v>
-      </c>
-      <c r="S60" s="8">
-        <v>106443493</v>
-      </c>
-      <c r="T60" s="8">
-        <v>0</v>
-      </c>
-      <c r="U60" s="8">
-        <v>0</v>
-      </c>
-      <c r="V60" s="8">
-        <v>0</v>
-      </c>
-      <c r="W60" s="8">
-        <v>0</v>
-      </c>
-      <c r="X60" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A61" s="6">
-        <v>2012</v>
-      </c>
-      <c r="B61" s="6">
-        <v>480417735</v>
-      </c>
-      <c r="C61" s="6">
-        <v>252245269</v>
-      </c>
-      <c r="D61" s="6">
-        <v>481498900</v>
-      </c>
-      <c r="E61" s="6">
-        <v>4674829504</v>
-      </c>
-      <c r="F61" s="6">
-        <v>994865890</v>
-      </c>
-      <c r="G61" s="6">
-        <v>0</v>
-      </c>
-      <c r="H61" s="6">
-        <v>12.6</v>
-      </c>
-      <c r="I61" s="6">
-        <v>20.3</v>
-      </c>
-      <c r="J61" s="6">
-        <v>5.6</v>
-      </c>
-      <c r="K61" s="6">
-        <v>-13.4</v>
-      </c>
-      <c r="L61" s="6">
-        <v>-7.7</v>
-      </c>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8">
-        <v>2012</v>
-      </c>
-      <c r="O61" s="8">
-        <v>229000223</v>
-      </c>
-      <c r="P61" s="8">
-        <v>4898355</v>
-      </c>
-      <c r="Q61" s="8">
-        <v>235944509</v>
-      </c>
-      <c r="R61" s="8">
-        <v>616832149</v>
-      </c>
-      <c r="S61" s="8">
-        <v>88032337</v>
-      </c>
-      <c r="T61" s="8">
-        <v>-59.2</v>
-      </c>
-      <c r="U61" s="8">
-        <v>63.2</v>
-      </c>
-      <c r="V61" s="8">
-        <v>-10.8</v>
-      </c>
-      <c r="W61" s="8">
-        <v>3.1</v>
-      </c>
-      <c r="X61" s="8">
-        <v>-17.3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A62" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B62" s="6">
-        <v>443624937</v>
-      </c>
-      <c r="C62" s="6">
-        <v>233577648</v>
-      </c>
-      <c r="D62" s="6">
-        <v>507545395</v>
-      </c>
-      <c r="E62" s="6">
-        <v>5310011534</v>
-      </c>
-      <c r="F62" s="6">
-        <v>1151517590</v>
-      </c>
-      <c r="G62" s="6">
-        <v>0</v>
-      </c>
-      <c r="H62" s="6">
-        <v>-7.7</v>
-      </c>
-      <c r="I62" s="6">
-        <v>-7.4</v>
-      </c>
-      <c r="J62" s="6">
-        <v>5.4</v>
-      </c>
-      <c r="K62" s="6">
-        <v>13.6</v>
-      </c>
-      <c r="L62" s="6">
-        <v>15.7</v>
-      </c>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8">
-        <v>2013</v>
-      </c>
-      <c r="O62" s="8">
-        <v>152211600</v>
-      </c>
-      <c r="P62" s="8">
-        <v>36498000</v>
-      </c>
-      <c r="Q62" s="8">
-        <v>320099458</v>
-      </c>
-      <c r="R62" s="8">
-        <v>698244870</v>
-      </c>
-      <c r="S62" s="8">
-        <v>76668736</v>
-      </c>
-      <c r="T62" s="8">
-        <v>-33.5</v>
-      </c>
-      <c r="U62" s="8">
-        <v>645.1</v>
-      </c>
-      <c r="V62" s="8">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="W62" s="8">
-        <v>13.2</v>
-      </c>
-      <c r="X62" s="8">
-        <v>-12.9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A63" s="6">
-        <v>2014</v>
-      </c>
-      <c r="B63" s="6">
-        <v>493745550</v>
-      </c>
-      <c r="C63" s="6">
-        <v>251039553</v>
-      </c>
-      <c r="D63" s="6">
-        <v>539179692</v>
-      </c>
-      <c r="E63" s="6">
-        <v>5548147471</v>
-      </c>
-      <c r="F63" s="6">
-        <v>1235623008</v>
-      </c>
-      <c r="G63" s="6">
-        <v>0</v>
-      </c>
-      <c r="H63" s="6">
-        <v>11.3</v>
-      </c>
-      <c r="I63" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="J63" s="6">
-        <v>6.2</v>
-      </c>
-      <c r="K63" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="L63" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8">
-        <v>2014</v>
-      </c>
-      <c r="O63" s="8">
-        <v>35970467</v>
-      </c>
-      <c r="P63" s="8">
-        <v>163431340</v>
-      </c>
-      <c r="Q63" s="8">
-        <v>337074369</v>
-      </c>
-      <c r="R63" s="8">
-        <v>834439917</v>
-      </c>
-      <c r="S63" s="8">
-        <v>136303979</v>
-      </c>
-      <c r="T63" s="8">
-        <v>-76.400000000000006</v>
-      </c>
-      <c r="U63" s="8">
-        <v>347.8</v>
-      </c>
-      <c r="V63" s="8">
-        <v>5.3</v>
-      </c>
-      <c r="W63" s="8">
-        <v>19.5</v>
-      </c>
-      <c r="X63" s="8">
-        <v>77.8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A64" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B64" s="6">
-        <v>431178629</v>
-      </c>
-      <c r="C64" s="6">
-        <v>248383874</v>
-      </c>
-      <c r="D64" s="6">
-        <v>538721359</v>
-      </c>
-      <c r="E64" s="6">
-        <v>4847167474</v>
-      </c>
-      <c r="F64" s="6">
-        <v>1131250604</v>
-      </c>
-      <c r="G64" s="6">
-        <v>0</v>
-      </c>
-      <c r="H64" s="6">
-        <v>-12.7</v>
-      </c>
-      <c r="I64" s="6">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="J64" s="6">
-        <v>-0.1</v>
-      </c>
-      <c r="K64" s="6">
-        <v>-12.6</v>
-      </c>
-      <c r="L64" s="6">
-        <v>-8.4</v>
-      </c>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8">
-        <v>2015</v>
-      </c>
-      <c r="O64" s="8">
-        <v>7541453</v>
-      </c>
-      <c r="P64" s="8">
-        <v>241213672</v>
-      </c>
-      <c r="Q64" s="8">
-        <v>332882252</v>
-      </c>
-      <c r="R64" s="8">
-        <v>846838226</v>
-      </c>
-      <c r="S64" s="8">
-        <v>158436589</v>
-      </c>
-      <c r="T64" s="8">
-        <v>-79</v>
-      </c>
-      <c r="U64" s="8">
-        <v>47.6</v>
-      </c>
-      <c r="V64" s="8">
-        <v>-1.2</v>
-      </c>
-      <c r="W64" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="X64" s="8">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A65" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B65" s="6">
-        <v>336661870</v>
-      </c>
-      <c r="C65" s="6">
-        <v>223121607</v>
-      </c>
-      <c r="D65" s="6">
-        <v>490678317</v>
-      </c>
-      <c r="E65" s="6">
-        <v>4856283745</v>
-      </c>
-      <c r="F65" s="6">
-        <v>1038791842</v>
-      </c>
-      <c r="G65" s="6">
-        <v>0</v>
-      </c>
-      <c r="H65" s="6">
-        <v>-21.9</v>
-      </c>
-      <c r="I65" s="6">
-        <v>-10.199999999999999</v>
-      </c>
-      <c r="J65" s="6">
-        <v>-8.9</v>
-      </c>
-      <c r="K65" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="L65" s="6">
-        <v>-8.1999999999999993</v>
-      </c>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8">
-        <v>2016</v>
-      </c>
-      <c r="O65" s="8">
-        <v>390779</v>
-      </c>
-      <c r="P65" s="8">
-        <v>277340187</v>
-      </c>
-      <c r="Q65" s="8">
-        <v>407059393</v>
-      </c>
-      <c r="R65" s="8">
-        <v>824292328</v>
-      </c>
-      <c r="S65" s="8">
-        <v>129022656</v>
-      </c>
-      <c r="T65" s="8">
-        <v>-94.8</v>
-      </c>
-      <c r="U65" s="8">
-        <v>15</v>
-      </c>
-      <c r="V65" s="8">
-        <v>22.3</v>
-      </c>
-      <c r="W65" s="8">
-        <v>-2.7</v>
-      </c>
-      <c r="X65" s="8">
-        <v>-18.600000000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A66" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B66" s="6">
-        <v>362079126</v>
-      </c>
-      <c r="C66" s="6">
-        <v>279561887</v>
-      </c>
-      <c r="D66" s="6">
-        <v>458184766</v>
-      </c>
-      <c r="E66" s="6">
-        <v>6541734207</v>
-      </c>
-      <c r="F66" s="6">
-        <v>1192234217</v>
-      </c>
-      <c r="G66" s="6">
-        <v>0</v>
-      </c>
-      <c r="H66" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="I66" s="6">
-        <v>25.3</v>
-      </c>
-      <c r="J66" s="6">
-        <v>-6.6</v>
-      </c>
-      <c r="K66" s="6">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="L66" s="6">
-        <v>14.8</v>
-      </c>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8">
-        <v>2017</v>
-      </c>
-      <c r="O66" s="8">
-        <v>1010517639</v>
-      </c>
-      <c r="P66" s="8">
-        <v>526226143</v>
-      </c>
-      <c r="Q66" s="8">
-        <v>578541510</v>
-      </c>
-      <c r="R66" s="8">
-        <v>1012140760</v>
-      </c>
-      <c r="S66" s="8">
-        <v>250243000</v>
-      </c>
-      <c r="T66" s="8">
-        <v>258490.6</v>
-      </c>
-      <c r="U66" s="8">
-        <v>89.7</v>
-      </c>
-      <c r="V66" s="8">
-        <v>42.1</v>
-      </c>
-      <c r="W66" s="8">
-        <v>22.8</v>
-      </c>
-      <c r="X66" s="8">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A67" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B67" s="6">
-        <v>505187486</v>
-      </c>
-      <c r="C67" s="6">
-        <v>333520766</v>
-      </c>
-      <c r="D67" s="6">
-        <v>518759126</v>
-      </c>
-      <c r="E67" s="6">
-        <v>8973976733</v>
-      </c>
-      <c r="F67" s="6">
-        <v>1772324721</v>
-      </c>
-      <c r="G67" s="6">
-        <v>0</v>
-      </c>
-      <c r="H67" s="6">
-        <v>39.5</v>
-      </c>
-      <c r="I67" s="6">
-        <v>19.3</v>
-      </c>
-      <c r="J67" s="6">
-        <v>13.2</v>
-      </c>
-      <c r="K67" s="6">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="L67" s="6">
-        <v>48.7</v>
-      </c>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8">
-        <v>2018</v>
-      </c>
-      <c r="O67" s="8">
-        <v>1940880768</v>
-      </c>
-      <c r="P67" s="8">
-        <v>851566027</v>
-      </c>
-      <c r="Q67" s="8">
-        <v>665075343</v>
-      </c>
-      <c r="R67" s="8">
-        <v>1568027103</v>
-      </c>
-      <c r="S67" s="8">
-        <v>417704202</v>
-      </c>
-      <c r="T67" s="8">
-        <v>92.1</v>
-      </c>
-      <c r="U67" s="8">
-        <v>61.8</v>
-      </c>
-      <c r="V67" s="8">
-        <v>15</v>
-      </c>
-      <c r="W67" s="8">
-        <v>54.9</v>
-      </c>
-      <c r="X67" s="8">
-        <v>66.900000000000006</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A68" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B68" s="6">
-        <v>611526613</v>
-      </c>
-      <c r="C68" s="6">
-        <v>473609598</v>
-      </c>
-      <c r="D68" s="6">
-        <v>539591124</v>
-      </c>
-      <c r="E68" s="6">
-        <v>10943980012</v>
-      </c>
-      <c r="F68" s="6">
-        <v>1863641663</v>
-      </c>
-      <c r="G68" s="6">
-        <v>0</v>
-      </c>
-      <c r="H68" s="6">
-        <v>21</v>
-      </c>
-      <c r="I68" s="6">
-        <v>42</v>
-      </c>
-      <c r="J68" s="6">
-        <v>4</v>
-      </c>
-      <c r="K68" s="6">
-        <v>22</v>
-      </c>
-      <c r="L68" s="6">
-        <v>5.2</v>
-      </c>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8">
-        <v>2019</v>
-      </c>
-      <c r="O68" s="8">
-        <v>1833394960</v>
-      </c>
-      <c r="P68" s="8">
-        <v>1639226208</v>
-      </c>
-      <c r="Q68" s="8">
-        <v>522219210</v>
-      </c>
-      <c r="R68" s="8">
-        <v>1508729726</v>
-      </c>
-      <c r="S68" s="8">
-        <v>365435136</v>
-      </c>
-      <c r="T68" s="8">
-        <v>-5.5</v>
-      </c>
-      <c r="U68" s="8">
-        <v>92.5</v>
-      </c>
-      <c r="V68" s="8">
-        <v>-21.5</v>
-      </c>
-      <c r="W68" s="8">
-        <v>-3.8</v>
-      </c>
-      <c r="X68" s="8">
-        <v>-12.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A69" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B69" s="6">
-        <v>731800513</v>
-      </c>
-      <c r="C69" s="6">
-        <v>996259648</v>
-      </c>
-      <c r="D69" s="6">
-        <v>695501471</v>
-      </c>
-      <c r="E69" s="6">
-        <v>15751463572</v>
-      </c>
-      <c r="F69" s="6">
-        <v>2314797121</v>
-      </c>
-      <c r="G69" s="6">
-        <v>0</v>
-      </c>
-      <c r="H69" s="6">
-        <v>19.7</v>
-      </c>
-      <c r="I69" s="6">
-        <v>110.4</v>
-      </c>
-      <c r="J69" s="6">
-        <v>28.9</v>
-      </c>
-      <c r="K69" s="6">
-        <v>43.9</v>
-      </c>
-      <c r="L69" s="6">
-        <v>24.2</v>
-      </c>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8">
-        <v>2020</v>
-      </c>
-      <c r="O69" s="8">
-        <v>2454000642</v>
-      </c>
-      <c r="P69" s="8">
-        <v>2041222992</v>
-      </c>
-      <c r="Q69" s="8">
-        <v>559244114</v>
-      </c>
-      <c r="R69" s="8">
-        <v>1551706240</v>
-      </c>
-      <c r="S69" s="8">
-        <v>669145103</v>
-      </c>
-      <c r="T69" s="8">
-        <v>33.9</v>
-      </c>
-      <c r="U69" s="8">
-        <v>24.5</v>
-      </c>
-      <c r="V69" s="8">
-        <v>7.1</v>
-      </c>
-      <c r="W69" s="8">
-        <v>2.8</v>
-      </c>
-      <c r="X69" s="8">
-        <v>83.1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A70" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B70" s="6">
-        <v>820551178</v>
-      </c>
-      <c r="C70" s="6">
-        <v>1076699531</v>
-      </c>
-      <c r="D70" s="6">
-        <v>710931719</v>
-      </c>
-      <c r="E70" s="6">
-        <v>19409207255</v>
-      </c>
-      <c r="F70" s="6">
-        <v>2003570058</v>
-      </c>
-      <c r="G70" s="6">
-        <v>0</v>
-      </c>
-      <c r="H70" s="6">
-        <v>12.1</v>
-      </c>
-      <c r="I70" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="J70" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K70" s="6">
-        <v>23.2</v>
-      </c>
-      <c r="L70" s="6">
-        <v>-13.4</v>
-      </c>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8">
-        <v>2021</v>
-      </c>
-      <c r="O70" s="8">
-        <v>1965904208</v>
-      </c>
-      <c r="P70" s="8">
-        <v>3562791702</v>
-      </c>
-      <c r="Q70" s="8">
-        <v>823437415</v>
-      </c>
-      <c r="R70" s="8">
-        <v>1317899774</v>
-      </c>
-      <c r="S70" s="8">
-        <v>713967473</v>
-      </c>
-      <c r="T70" s="8">
-        <v>-19.899999999999999</v>
-      </c>
-      <c r="U70" s="8">
-        <v>74.5</v>
-      </c>
-      <c r="V70" s="8">
-        <v>47.2</v>
-      </c>
-      <c r="W70" s="8">
-        <v>-15.1</v>
-      </c>
-      <c r="X70" s="8">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A71" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B71" s="6">
-        <v>1133984364</v>
-      </c>
-      <c r="C71" s="6">
-        <v>1190337026</v>
-      </c>
-      <c r="D71" s="6">
-        <v>893637442</v>
-      </c>
-      <c r="E71" s="6">
-        <v>24817224030</v>
-      </c>
-      <c r="F71" s="6">
-        <v>1485707429</v>
-      </c>
-      <c r="G71" s="6">
-        <v>0</v>
-      </c>
-      <c r="H71" s="6">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="I71" s="6">
-        <v>10.6</v>
-      </c>
-      <c r="J71" s="6">
-        <v>25.7</v>
-      </c>
-      <c r="K71" s="6">
-        <v>27.9</v>
-      </c>
-      <c r="L71" s="6">
-        <v>-25.8</v>
-      </c>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8">
-        <v>2022</v>
-      </c>
-      <c r="O71" s="8">
-        <v>3454180843</v>
-      </c>
-      <c r="P71" s="8">
-        <v>4088039094</v>
-      </c>
-      <c r="Q71" s="8">
-        <v>965857612</v>
-      </c>
-      <c r="R71" s="8">
-        <v>924958561</v>
-      </c>
-      <c r="S71" s="8">
-        <v>1538750904</v>
-      </c>
-      <c r="T71" s="8">
-        <v>75.7</v>
-      </c>
-      <c r="U71" s="8">
-        <v>14.7</v>
-      </c>
-      <c r="V71" s="8">
-        <v>17.3</v>
-      </c>
-      <c r="W71" s="8">
-        <v>-29.8</v>
-      </c>
-      <c r="X71" s="8">
-        <v>115.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A72" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B72" s="6">
-        <v>1069672152</v>
-      </c>
-      <c r="C72" s="6">
-        <v>1247003284</v>
-      </c>
-      <c r="D72" s="6">
-        <v>881833652</v>
-      </c>
-      <c r="E72" s="6">
-        <v>24778783875</v>
-      </c>
-      <c r="F72" s="6">
-        <v>1347650671</v>
-      </c>
-      <c r="G72" s="6">
-        <v>0</v>
-      </c>
-      <c r="H72" s="6">
-        <v>-5.7</v>
-      </c>
-      <c r="I72" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="J72" s="6">
-        <v>-1.3</v>
-      </c>
-      <c r="K72" s="6">
-        <v>-0.2</v>
-      </c>
-      <c r="L72" s="6">
-        <v>-9.3000000000000007</v>
-      </c>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8">
-        <v>2023</v>
-      </c>
-      <c r="O72" s="8">
-        <v>4259223479</v>
-      </c>
-      <c r="P72" s="8">
-        <v>4128717421</v>
-      </c>
-      <c r="Q72" s="8">
-        <v>912976476</v>
-      </c>
-      <c r="R72" s="8">
-        <v>869284521</v>
-      </c>
-      <c r="S72" s="8">
-        <v>1919520053</v>
-      </c>
-      <c r="T72" s="8">
-        <v>23.3</v>
-      </c>
-      <c r="U72" s="8">
-        <v>1</v>
-      </c>
-      <c r="V72" s="8">
-        <v>-5.5</v>
-      </c>
-      <c r="W72" s="8">
-        <v>-6</v>
-      </c>
-      <c r="X72" s="8">
-        <v>24.7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A73" s="6">
-        <v>2024</v>
-      </c>
-      <c r="B73" s="6">
-        <v>1279287075</v>
-      </c>
-      <c r="C73" s="6">
-        <v>1359036645</v>
-      </c>
-      <c r="D73" s="6">
-        <v>755803695</v>
-      </c>
-      <c r="E73" s="6">
-        <v>24500702013</v>
-      </c>
-      <c r="F73" s="6">
-        <v>1662081961</v>
-      </c>
-      <c r="G73" s="6">
-        <v>0</v>
-      </c>
-      <c r="H73" s="6">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="I73" s="6">
-        <v>9</v>
-      </c>
-      <c r="J73" s="6">
-        <v>-14.3</v>
-      </c>
-      <c r="K73" s="6">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="L73" s="6">
-        <v>23.3</v>
-      </c>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8">
-        <v>2024</v>
-      </c>
-      <c r="O73" s="8">
-        <v>4022914850</v>
-      </c>
-      <c r="P73" s="8">
-        <v>3643506354</v>
-      </c>
-      <c r="Q73" s="8">
-        <v>1323281827</v>
-      </c>
-      <c r="R73" s="8">
-        <v>1000500442</v>
-      </c>
-      <c r="S73" s="8">
-        <v>2105600209</v>
-      </c>
-      <c r="T73" s="8">
-        <v>-5.5</v>
-      </c>
-      <c r="U73" s="8">
-        <v>-11.8</v>
-      </c>
-      <c r="V73" s="8">
-        <v>44.9</v>
-      </c>
-      <c r="W73" s="8">
-        <v>15.1</v>
-      </c>
-      <c r="X73" s="8">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A74" s="6">
-        <v>2025</v>
-      </c>
-      <c r="B74" s="6">
-        <v>1142988552</v>
-      </c>
-      <c r="C74" s="6">
-        <v>1152863849</v>
-      </c>
-      <c r="D74" s="6">
-        <v>734412433</v>
-      </c>
-      <c r="E74" s="6">
-        <v>19638421523</v>
-      </c>
-      <c r="F74" s="6">
-        <v>1624985448</v>
-      </c>
-      <c r="G74" s="6">
-        <v>0</v>
-      </c>
-      <c r="H74" s="6">
-        <v>-10.7</v>
-      </c>
-      <c r="I74" s="6">
-        <v>-15.2</v>
-      </c>
-      <c r="J74" s="6">
-        <v>-2.8</v>
-      </c>
-      <c r="K74" s="6">
-        <v>-19.8</v>
-      </c>
-      <c r="L74" s="6">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8">
-        <v>2025</v>
-      </c>
-      <c r="O74" s="8">
-        <v>3065282384</v>
-      </c>
-      <c r="P74" s="8">
-        <v>3075864212</v>
-      </c>
-      <c r="Q74" s="8">
-        <v>1202839395</v>
-      </c>
-      <c r="R74" s="8">
-        <v>1089071787</v>
-      </c>
-      <c r="S74" s="8">
-        <v>1855870433</v>
-      </c>
-      <c r="T74" s="8">
-        <v>-23.8</v>
-      </c>
-      <c r="U74" s="8">
-        <v>-15.6</v>
-      </c>
-      <c r="V74" s="8">
-        <v>-9.1</v>
-      </c>
-      <c r="W74" s="8">
-        <v>8.9</v>
-      </c>
-      <c r="X74" s="8">
-        <v>-11.9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
-      <c r="V75" s="8"/>
-      <c r="W75" s="8"/>
-      <c r="X75" s="8"/>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="8"/>
-      <c r="V76" s="8"/>
-      <c r="W76" s="8"/>
-      <c r="X76" s="8"/>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
-      <c r="U77" s="8"/>
-      <c r="V77" s="8"/>
-      <c r="W77" s="8"/>
-      <c r="X77" s="8"/>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A78" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J78" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K78" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L78" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="O78" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="P78" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q78" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="R78" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="S78" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="T78" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="U78" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="V78" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="W78" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="X78" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A79" s="6">
-        <v>2011</v>
-      </c>
-      <c r="B79" s="6">
-        <v>75768087</v>
-      </c>
-      <c r="C79" s="6">
-        <v>0</v>
-      </c>
-      <c r="D79" s="6">
-        <v>0</v>
-      </c>
-      <c r="E79" s="6">
-        <v>780533152</v>
-      </c>
-      <c r="F79" s="6">
-        <v>18738456</v>
-      </c>
-      <c r="G79" s="6">
-        <v>0</v>
-      </c>
-      <c r="H79" s="6">
-        <v>0</v>
-      </c>
-      <c r="I79" s="6">
-        <v>0</v>
-      </c>
-      <c r="J79" s="6">
-        <v>0</v>
-      </c>
-      <c r="K79" s="6">
-        <v>0</v>
-      </c>
-      <c r="L79" s="6">
-        <v>0</v>
-      </c>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8">
-        <v>2011</v>
-      </c>
-      <c r="O79" s="8">
-        <v>0</v>
-      </c>
-      <c r="P79" s="8">
-        <v>50000000</v>
-      </c>
-      <c r="Q79" s="8">
-        <v>400000000</v>
-      </c>
-      <c r="R79" s="8">
-        <v>0</v>
-      </c>
-      <c r="S79" s="8">
-        <v>0</v>
-      </c>
-      <c r="T79" s="8">
-        <v>0</v>
-      </c>
-      <c r="U79" s="8">
-        <v>0</v>
-      </c>
-      <c r="V79" s="8">
-        <v>0</v>
-      </c>
-      <c r="W79" s="8">
-        <v>0</v>
-      </c>
-      <c r="X79" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A80" s="6">
-        <v>2012</v>
-      </c>
-      <c r="B80" s="6">
-        <v>67911622</v>
-      </c>
-      <c r="C80" s="6">
-        <v>0</v>
-      </c>
-      <c r="D80" s="6">
-        <v>0</v>
-      </c>
-      <c r="E80" s="6">
-        <v>1146443774</v>
-      </c>
-      <c r="F80" s="6">
-        <v>16396148</v>
-      </c>
-      <c r="G80" s="6">
-        <v>0</v>
-      </c>
-      <c r="H80" s="6">
-        <v>-10.4</v>
-      </c>
-      <c r="I80" s="6">
-        <v>0</v>
-      </c>
-      <c r="J80" s="6">
-        <v>0</v>
-      </c>
-      <c r="K80" s="6">
-        <v>46.9</v>
-      </c>
-      <c r="L80" s="6">
-        <v>-12.5</v>
-      </c>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8">
-        <v>2012</v>
-      </c>
-      <c r="O80" s="8">
-        <v>0</v>
-      </c>
-      <c r="P80" s="8">
-        <v>50000000</v>
-      </c>
-      <c r="Q80" s="8">
-        <v>600000000</v>
-      </c>
-      <c r="R80" s="8">
-        <v>0</v>
-      </c>
-      <c r="S80" s="8">
-        <v>0</v>
-      </c>
-      <c r="T80" s="8">
-        <v>0</v>
-      </c>
-      <c r="U80" s="8">
-        <v>0</v>
-      </c>
-      <c r="V80" s="8">
-        <v>50</v>
-      </c>
-      <c r="W80" s="8">
-        <v>0</v>
-      </c>
-      <c r="X80" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A81" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B81" s="6">
-        <v>58665151</v>
-      </c>
-      <c r="C81" s="6">
-        <v>0</v>
-      </c>
-      <c r="D81" s="6">
-        <v>0</v>
-      </c>
-      <c r="E81" s="6">
-        <v>1247052058</v>
-      </c>
-      <c r="F81" s="6">
-        <v>11711532</v>
-      </c>
-      <c r="G81" s="6">
-        <v>0</v>
-      </c>
-      <c r="H81" s="6">
-        <v>-13.6</v>
-      </c>
-      <c r="I81" s="6">
-        <v>0</v>
-      </c>
-      <c r="J81" s="6">
-        <v>0</v>
-      </c>
-      <c r="K81" s="6">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="L81" s="6">
-        <v>-28.6</v>
-      </c>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8">
-        <v>2013</v>
-      </c>
-      <c r="O81" s="8">
-        <v>0</v>
-      </c>
-      <c r="P81" s="8">
-        <v>50000000</v>
-      </c>
-      <c r="Q81" s="8">
-        <v>600000000</v>
-      </c>
-      <c r="R81" s="8">
-        <v>0</v>
-      </c>
-      <c r="S81" s="8">
-        <v>60000000</v>
-      </c>
-      <c r="T81" s="8">
-        <v>0</v>
-      </c>
-      <c r="U81" s="8">
-        <v>0</v>
-      </c>
-      <c r="V81" s="8">
-        <v>0</v>
-      </c>
-      <c r="W81" s="8">
-        <v>0</v>
-      </c>
-      <c r="X81" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A82" s="6">
-        <v>2014</v>
-      </c>
-      <c r="B82" s="6">
-        <v>51385846</v>
-      </c>
-      <c r="C82" s="6">
-        <v>0</v>
-      </c>
-      <c r="D82" s="6">
-        <v>0</v>
-      </c>
-      <c r="E82" s="6">
-        <v>1650453801</v>
-      </c>
-      <c r="F82" s="6">
-        <v>483026916</v>
-      </c>
-      <c r="G82" s="6">
-        <v>0</v>
-      </c>
-      <c r="H82" s="6">
-        <v>-12.4</v>
-      </c>
-      <c r="I82" s="6">
-        <v>0</v>
-      </c>
-      <c r="J82" s="6">
-        <v>0</v>
-      </c>
-      <c r="K82" s="6">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="L82" s="6">
-        <v>4024.4</v>
-      </c>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8">
-        <v>2014</v>
-      </c>
-      <c r="O82" s="8">
-        <v>460000000</v>
-      </c>
-      <c r="P82" s="8">
-        <v>50000000</v>
-      </c>
-      <c r="Q82" s="8">
-        <v>600000000</v>
-      </c>
-      <c r="R82" s="8">
-        <v>0</v>
-      </c>
-      <c r="S82" s="8">
-        <v>60000000</v>
-      </c>
-      <c r="T82" s="8">
-        <v>0</v>
-      </c>
-      <c r="U82" s="8">
-        <v>0</v>
-      </c>
-      <c r="V82" s="8">
-        <v>0</v>
-      </c>
-      <c r="W82" s="8">
-        <v>0</v>
-      </c>
-      <c r="X82" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A83" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B83" s="6">
-        <v>43126243</v>
-      </c>
-      <c r="C83" s="6">
-        <v>0</v>
-      </c>
-      <c r="D83" s="6">
-        <v>0</v>
-      </c>
-      <c r="E83" s="6">
-        <v>2637450008</v>
-      </c>
-      <c r="F83" s="6">
-        <v>938342300</v>
-      </c>
-      <c r="G83" s="6">
-        <v>0</v>
-      </c>
-      <c r="H83" s="6">
-        <v>-16.100000000000001</v>
-      </c>
-      <c r="I83" s="6">
-        <v>0</v>
-      </c>
-      <c r="J83" s="6">
-        <v>0</v>
-      </c>
-      <c r="K83" s="6">
-        <v>59.8</v>
-      </c>
-      <c r="L83" s="6">
-        <v>94.3</v>
-      </c>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8">
-        <v>2015</v>
-      </c>
-      <c r="O83" s="8">
-        <v>920000000</v>
-      </c>
-      <c r="P83" s="8">
-        <v>950000000</v>
-      </c>
-      <c r="Q83" s="8">
-        <v>600000000</v>
-      </c>
-      <c r="R83" s="8">
-        <v>0</v>
-      </c>
-      <c r="S83" s="8">
-        <v>60000000</v>
-      </c>
-      <c r="T83" s="8">
-        <v>100</v>
-      </c>
-      <c r="U83" s="8">
-        <v>1800</v>
-      </c>
-      <c r="V83" s="8">
-        <v>0</v>
-      </c>
-      <c r="W83" s="8">
-        <v>0</v>
-      </c>
-      <c r="X83" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A84" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B84" s="6">
-        <v>35926366</v>
-      </c>
-      <c r="C84" s="6">
-        <v>0</v>
-      </c>
-      <c r="D84" s="6">
-        <v>0</v>
-      </c>
-      <c r="E84" s="6">
-        <v>2542677741</v>
-      </c>
-      <c r="F84" s="6">
-        <v>475999992</v>
-      </c>
-      <c r="G84" s="6">
-        <v>0</v>
-      </c>
-      <c r="H84" s="6">
-        <v>-16.7</v>
-      </c>
-      <c r="I84" s="6">
-        <v>0</v>
-      </c>
-      <c r="J84" s="6">
-        <v>0</v>
-      </c>
-      <c r="K84" s="6">
-        <v>-3.6</v>
-      </c>
-      <c r="L84" s="6">
-        <v>-49.3</v>
-      </c>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8">
-        <v>2016</v>
-      </c>
-      <c r="O84" s="8">
-        <v>460000000</v>
-      </c>
-      <c r="P84" s="8">
-        <v>948500000</v>
-      </c>
-      <c r="Q84" s="8">
-        <v>600000000</v>
-      </c>
-      <c r="R84" s="8">
-        <v>0</v>
-      </c>
-      <c r="S84" s="8">
-        <v>60000000</v>
-      </c>
-      <c r="T84" s="8">
-        <v>-50</v>
-      </c>
-      <c r="U84" s="8">
-        <v>-0.2</v>
-      </c>
-      <c r="V84" s="8">
-        <v>0</v>
-      </c>
-      <c r="W84" s="8">
-        <v>0</v>
-      </c>
-      <c r="X84" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A85" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B85" s="6">
-        <v>29190919</v>
-      </c>
-      <c r="C85" s="6">
-        <v>0</v>
-      </c>
-      <c r="D85" s="6">
-        <v>0</v>
-      </c>
-      <c r="E85" s="6">
-        <v>2741849706</v>
-      </c>
-      <c r="F85" s="6">
-        <v>475999992</v>
-      </c>
-      <c r="G85" s="6">
-        <v>0</v>
-      </c>
-      <c r="H85" s="6">
-        <v>-18.7</v>
-      </c>
-      <c r="I85" s="6">
-        <v>0</v>
-      </c>
-      <c r="J85" s="6">
-        <v>0</v>
-      </c>
-      <c r="K85" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="L85" s="6">
-        <v>0</v>
-      </c>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8">
-        <v>2017</v>
-      </c>
-      <c r="O85" s="8">
-        <v>460000000</v>
-      </c>
-      <c r="P85" s="8">
-        <v>947500000</v>
-      </c>
-      <c r="Q85" s="8">
-        <v>600000000</v>
-      </c>
-      <c r="R85" s="8">
-        <v>0</v>
-      </c>
-      <c r="S85" s="8">
-        <v>60000000</v>
-      </c>
-      <c r="T85" s="8">
-        <v>0</v>
-      </c>
-      <c r="U85" s="8">
-        <v>-0.1</v>
-      </c>
-      <c r="V85" s="8">
-        <v>0</v>
-      </c>
-      <c r="W85" s="8">
-        <v>0</v>
-      </c>
-      <c r="X85" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A86" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B86" s="6">
-        <v>20977860</v>
-      </c>
-      <c r="C86" s="6">
-        <v>0</v>
-      </c>
-      <c r="D86" s="6">
-        <v>0</v>
-      </c>
-      <c r="E86" s="6">
-        <v>2528473757</v>
-      </c>
-      <c r="F86" s="6">
-        <v>265999992</v>
-      </c>
-      <c r="G86" s="6">
-        <v>0</v>
-      </c>
-      <c r="H86" s="6">
-        <v>-28.1</v>
-      </c>
-      <c r="I86" s="6">
-        <v>0</v>
-      </c>
-      <c r="J86" s="6">
-        <v>0</v>
-      </c>
-      <c r="K86" s="6">
-        <v>-7.8</v>
-      </c>
-      <c r="L86" s="6">
-        <v>-44.1</v>
-      </c>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8">
-        <v>2018</v>
-      </c>
-      <c r="O86" s="8">
-        <v>250000000</v>
-      </c>
-      <c r="P86" s="8">
-        <v>946500000</v>
-      </c>
-      <c r="Q86" s="8">
-        <v>111800000</v>
-      </c>
-      <c r="R86" s="8">
-        <v>179266140</v>
-      </c>
-      <c r="S86" s="8">
-        <v>341556000</v>
-      </c>
-      <c r="T86" s="8">
-        <v>-45.7</v>
-      </c>
-      <c r="U86" s="8">
-        <v>-0.1</v>
-      </c>
-      <c r="V86" s="8">
-        <v>-81.400000000000006</v>
-      </c>
-      <c r="W86" s="8">
-        <v>0</v>
-      </c>
-      <c r="X86" s="8">
-        <v>469.3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A87" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B87" s="6">
-        <v>14440399</v>
-      </c>
-      <c r="C87" s="6">
-        <v>0</v>
-      </c>
-      <c r="D87" s="6">
-        <v>0</v>
-      </c>
-      <c r="E87" s="6">
-        <v>2219257036</v>
-      </c>
-      <c r="F87" s="6">
-        <v>288299992</v>
-      </c>
-      <c r="G87" s="6">
-        <v>0</v>
-      </c>
-      <c r="H87" s="6">
-        <v>-31.2</v>
-      </c>
-      <c r="I87" s="6">
-        <v>0</v>
-      </c>
-      <c r="J87" s="6">
-        <v>0</v>
-      </c>
-      <c r="K87" s="6">
-        <v>-12.2</v>
-      </c>
-      <c r="L87" s="6">
-        <v>8.4</v>
-      </c>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8">
-        <v>2019</v>
-      </c>
-      <c r="O87" s="8">
-        <v>250000000</v>
-      </c>
-      <c r="P87" s="8">
-        <v>945500000</v>
-      </c>
-      <c r="Q87" s="8">
-        <v>111800000</v>
-      </c>
-      <c r="R87" s="8">
-        <v>119470000</v>
-      </c>
-      <c r="S87" s="8">
-        <v>335700000</v>
-      </c>
-      <c r="T87" s="8">
-        <v>0</v>
-      </c>
-      <c r="U87" s="8">
-        <v>-0.1</v>
-      </c>
-      <c r="V87" s="8">
-        <v>0</v>
-      </c>
-      <c r="W87" s="8">
-        <v>-33.4</v>
-      </c>
-      <c r="X87" s="8">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A88" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B88" s="6">
-        <v>10871995</v>
-      </c>
-      <c r="C88" s="6">
-        <v>0</v>
-      </c>
-      <c r="D88" s="6">
-        <v>0</v>
-      </c>
-      <c r="E88" s="6">
-        <v>2213521574</v>
-      </c>
-      <c r="F88" s="6">
-        <v>288299992</v>
-      </c>
-      <c r="G88" s="6">
-        <v>0</v>
-      </c>
-      <c r="H88" s="6">
-        <v>-24.7</v>
-      </c>
-      <c r="I88" s="6">
-        <v>0</v>
-      </c>
-      <c r="J88" s="6">
-        <v>0</v>
-      </c>
-      <c r="K88" s="6">
-        <v>-0.3</v>
-      </c>
-      <c r="L88" s="6">
-        <v>0</v>
-      </c>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8">
-        <v>2020</v>
-      </c>
-      <c r="O88" s="8">
-        <v>250000000</v>
-      </c>
-      <c r="P88" s="8">
-        <v>944500000</v>
-      </c>
-      <c r="Q88" s="8">
-        <v>111800000</v>
-      </c>
-      <c r="R88" s="8">
-        <v>127660000</v>
-      </c>
-      <c r="S88" s="8">
-        <v>280950000</v>
-      </c>
-      <c r="T88" s="8">
-        <v>0</v>
-      </c>
-      <c r="U88" s="8">
-        <v>-0.1</v>
-      </c>
-      <c r="V88" s="8">
-        <v>0</v>
-      </c>
-      <c r="W88" s="8">
-        <v>6.9</v>
-      </c>
-      <c r="X88" s="8">
-        <v>-16.3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A89" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B89" s="6">
-        <v>7361771</v>
-      </c>
-      <c r="C89" s="6">
-        <v>0</v>
-      </c>
-      <c r="D89" s="6">
-        <v>0</v>
-      </c>
-      <c r="E89" s="6">
-        <v>2065880008</v>
-      </c>
-      <c r="F89" s="6">
-        <v>288299992</v>
-      </c>
-      <c r="G89" s="6">
-        <v>0</v>
-      </c>
-      <c r="H89" s="6">
-        <v>-32.299999999999997</v>
-      </c>
-      <c r="I89" s="6">
-        <v>0</v>
-      </c>
-      <c r="J89" s="6">
-        <v>0</v>
-      </c>
-      <c r="K89" s="6">
-        <v>-6.7</v>
-      </c>
-      <c r="L89" s="6">
-        <v>0</v>
-      </c>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8">
-        <v>2021</v>
-      </c>
-      <c r="O89" s="8">
-        <v>250000000</v>
-      </c>
-      <c r="P89" s="8">
-        <v>943500000</v>
-      </c>
-      <c r="Q89" s="8">
-        <v>111800000</v>
-      </c>
-      <c r="R89" s="8">
-        <v>126781200</v>
-      </c>
-      <c r="S89" s="8">
-        <v>279429000</v>
-      </c>
-      <c r="T89" s="8">
-        <v>0</v>
-      </c>
-      <c r="U89" s="8">
-        <v>-0.1</v>
-      </c>
-      <c r="V89" s="8">
-        <v>0</v>
-      </c>
-      <c r="W89" s="8">
-        <v>-0.7</v>
-      </c>
-      <c r="X89" s="8">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A90" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B90" s="6">
-        <v>1481662</v>
-      </c>
-      <c r="C90" s="6">
-        <v>0</v>
-      </c>
-      <c r="D90" s="6">
-        <v>0</v>
-      </c>
-      <c r="E90" s="6">
-        <v>1888383630</v>
-      </c>
-      <c r="F90" s="6">
-        <v>288299992</v>
-      </c>
-      <c r="G90" s="6">
-        <v>0</v>
-      </c>
-      <c r="H90" s="6">
-        <v>-79.900000000000006</v>
-      </c>
-      <c r="I90" s="6">
-        <v>0</v>
-      </c>
-      <c r="J90" s="6">
-        <v>0</v>
-      </c>
-      <c r="K90" s="6">
-        <v>-8.6</v>
-      </c>
-      <c r="L90" s="6">
-        <v>0</v>
-      </c>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8">
-        <v>2022</v>
-      </c>
-      <c r="O90" s="8">
-        <v>250000000</v>
-      </c>
-      <c r="P90" s="8">
-        <v>942500000</v>
-      </c>
-      <c r="Q90" s="8">
-        <v>111800000</v>
-      </c>
-      <c r="R90" s="8">
-        <v>116469600</v>
-      </c>
-      <c r="S90" s="8">
-        <v>201582000</v>
-      </c>
-      <c r="T90" s="8">
-        <v>0</v>
-      </c>
-      <c r="U90" s="8">
-        <v>-0.1</v>
-      </c>
-      <c r="V90" s="8">
-        <v>0</v>
-      </c>
-      <c r="W90" s="8">
-        <v>-8.1</v>
-      </c>
-      <c r="X90" s="8">
-        <v>-27.9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A91" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B91" s="6">
-        <v>0</v>
-      </c>
-      <c r="C91" s="6">
-        <v>0</v>
-      </c>
-      <c r="D91" s="6">
-        <v>0</v>
-      </c>
-      <c r="E91" s="6">
-        <v>1668442817</v>
-      </c>
-      <c r="F91" s="6">
-        <v>263500000</v>
-      </c>
-      <c r="G91" s="6">
-        <v>0</v>
-      </c>
-      <c r="H91" s="6">
-        <v>-100</v>
-      </c>
-      <c r="I91" s="6">
-        <v>0</v>
-      </c>
-      <c r="J91" s="6">
-        <v>0</v>
-      </c>
-      <c r="K91" s="6">
-        <v>-11.6</v>
-      </c>
-      <c r="L91" s="6">
-        <v>-8.6</v>
-      </c>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8">
-        <v>2023</v>
-      </c>
-      <c r="O91" s="8">
-        <v>250000000</v>
-      </c>
-      <c r="P91" s="8">
-        <v>941500000</v>
-      </c>
-      <c r="Q91" s="8">
-        <v>111800000</v>
-      </c>
-      <c r="R91" s="8">
-        <v>115200800</v>
-      </c>
-      <c r="S91" s="8">
-        <v>199386000</v>
-      </c>
-      <c r="T91" s="8">
-        <v>0</v>
-      </c>
-      <c r="U91" s="8">
-        <v>-0.1</v>
-      </c>
-      <c r="V91" s="8">
-        <v>0</v>
-      </c>
-      <c r="W91" s="8">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="X91" s="8">
-        <v>-1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A92" s="6">
-        <v>2024</v>
-      </c>
-      <c r="B92" s="6">
-        <v>0</v>
-      </c>
-      <c r="C92" s="6">
-        <v>0</v>
-      </c>
-      <c r="D92" s="6">
-        <v>0</v>
-      </c>
-      <c r="E92" s="6">
-        <v>1704176437</v>
-      </c>
-      <c r="F92" s="6">
-        <v>263500000</v>
-      </c>
-      <c r="G92" s="6">
-        <v>0</v>
-      </c>
-      <c r="H92" s="6">
-        <v>0</v>
-      </c>
-      <c r="I92" s="6">
-        <v>0</v>
-      </c>
-      <c r="J92" s="6">
-        <v>0</v>
-      </c>
-      <c r="K92" s="6">
-        <v>2.1</v>
-      </c>
-      <c r="L92" s="6">
-        <v>0</v>
-      </c>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8">
-        <v>2024</v>
-      </c>
-      <c r="O92" s="8">
-        <v>250000000</v>
-      </c>
-      <c r="P92" s="8">
-        <v>812556298</v>
-      </c>
-      <c r="Q92" s="8">
-        <v>111800000</v>
-      </c>
-      <c r="R92" s="8">
-        <v>333731200</v>
-      </c>
-      <c r="S92" s="8">
-        <v>201429000</v>
-      </c>
-      <c r="T92" s="8">
-        <v>0</v>
-      </c>
-      <c r="U92" s="8">
-        <v>-13.7</v>
-      </c>
-      <c r="V92" s="8">
-        <v>0</v>
-      </c>
-      <c r="W92" s="8">
-        <v>189.7</v>
-      </c>
-      <c r="X92" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A93" s="6">
-        <v>2025</v>
-      </c>
-      <c r="B93" s="6">
-        <v>0</v>
-      </c>
-      <c r="C93" s="6">
-        <v>0</v>
-      </c>
-      <c r="D93" s="6">
-        <v>0</v>
-      </c>
-      <c r="E93" s="6">
-        <v>1414730689</v>
-      </c>
-      <c r="F93" s="6">
-        <v>251500000</v>
-      </c>
-      <c r="G93" s="6">
-        <v>0</v>
-      </c>
-      <c r="H93" s="6">
-        <v>0</v>
-      </c>
-      <c r="I93" s="6">
-        <v>0</v>
-      </c>
-      <c r="J93" s="6">
-        <v>0</v>
-      </c>
-      <c r="K93" s="6">
-        <v>-17</v>
-      </c>
-      <c r="L93" s="6">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8">
-        <v>2025</v>
-      </c>
-      <c r="O93" s="8">
-        <v>250000000</v>
-      </c>
-      <c r="P93" s="8">
-        <v>539000000</v>
-      </c>
-      <c r="Q93" s="8">
-        <v>111800000</v>
-      </c>
-      <c r="R93" s="8">
-        <v>345389600</v>
-      </c>
-      <c r="S93" s="8">
-        <v>204507000</v>
-      </c>
-      <c r="T93" s="8">
-        <v>0</v>
-      </c>
-      <c r="U93" s="8">
-        <v>-33.700000000000003</v>
-      </c>
-      <c r="V93" s="8">
-        <v>0</v>
-      </c>
-      <c r="W93" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="X93" s="8">
-        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -13171,8 +9037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060F12C8-586B-4088-8656-2D6EC3419292}">
   <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13202,15 +9068,15 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -13383,15 +9249,15 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
@@ -13427,7 +9293,7 @@
         <v>47</v>
       </c>
       <c r="N21" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="O21" t="s">
         <v>15</v>
@@ -13436,7 +9302,7 @@
         <v>14</v>
       </c>
       <c r="Q21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="R21" t="s">
         <v>16</v>
@@ -13448,16 +9314,16 @@
         <v>56</v>
       </c>
       <c r="U21" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="V21" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="W21" t="s">
         <v>59</v>
       </c>
       <c r="X21" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.35">
